--- a/server/assets/MONITORING.xlsx
+++ b/server/assets/MONITORING.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9D475A-71F5-47AA-A39A-D1B9D03DF75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C1BD5-4E6E-4563-B315-CA9C18FFACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lap" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="169">
   <si>
     <t>LAPORAN PERJALANAN DINAS DALAM DAERAH</t>
   </si>
@@ -271,9 +271,6 @@
     <t>PADA TANGGAL</t>
   </si>
   <si>
-    <t>NOMOR SPD</t>
-  </si>
-  <si>
     <t>I.</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t>NIP.19800830 200212 2 009</t>
   </si>
   <si>
-    <t>NIP. 19800830 200212 2 009</t>
-  </si>
-  <si>
     <t>SURAT  TUGAS</t>
   </si>
   <si>
@@ -524,6 +518,30 @@
   </si>
   <si>
     <t>NIP.19780703 200502 2 006</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1824,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,9 +2026,8 @@
       <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6" t="str">
-        <f>SURTUG!$G$9</f>
-        <v>NOMOR SURAT TUGAS</v>
+      <c r="F6" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -2027,9 +2044,8 @@
       <c r="Q6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="6" t="str">
-        <f>SURTUG!$G$9</f>
-        <v>NOMOR SURAT TUGAS</v>
+      <c r="R6" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -2048,9 +2064,8 @@
       <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="str">
-        <f>SURTUG!G36</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="F7" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -2067,9 +2082,8 @@
       <c r="Q7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="6" t="str">
-        <f>F7</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="R7" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -2152,9 +2166,8 @@
       <c r="G10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="6" t="str">
-        <f>SURTUG!$G$15</f>
-        <v>NAMA1</v>
+      <c r="H10" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2173,9 +2186,8 @@
       <c r="S10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T10" s="6" t="str">
-        <f>SURTUG!$G$15</f>
-        <v>NAMA1</v>
+      <c r="T10" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -2194,9 +2206,8 @@
       <c r="G11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="6" t="str">
-        <f>SURTUG!$G$17</f>
-        <v>NIP1</v>
+      <c r="H11" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -2213,9 +2224,8 @@
       <c r="S11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T11" s="6" t="str">
-        <f>SURTUG!$G$17</f>
-        <v>NIP1</v>
+      <c r="T11" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -2262,9 +2272,8 @@
       <c r="G13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="6" t="str">
-        <f>SURTUG!$G$20</f>
-        <v>NAMA2</v>
+      <c r="H13" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -2283,9 +2292,8 @@
       <c r="S13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="6" t="str">
-        <f>SURTUG!$G$20</f>
-        <v>NAMA2</v>
+      <c r="T13" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
@@ -2304,9 +2312,8 @@
       <c r="G14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="6" t="str">
-        <f>SURTUG!$G$22</f>
-        <v>NIP2</v>
+      <c r="H14" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -2323,9 +2330,8 @@
       <c r="S14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T14" s="6" t="str">
-        <f>SURTUG!$G$22</f>
-        <v>NIP2</v>
+      <c r="T14" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -2372,9 +2378,8 @@
       <c r="G16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="6" t="str">
-        <f>SURTUG!$G$25</f>
-        <v>NAMA3</v>
+      <c r="H16" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -2393,9 +2398,8 @@
       <c r="S16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T16" s="6" t="str">
-        <f>SURTUG!$G$25</f>
-        <v>NAMA3</v>
+      <c r="T16" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
@@ -2414,9 +2418,8 @@
       <c r="G17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="6" t="str">
-        <f>SURTUG!$G$27</f>
-        <v>NIP3</v>
+      <c r="H17" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -2433,9 +2436,8 @@
       <c r="S17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T17" s="6" t="str">
-        <f>SURTUG!$G$27</f>
-        <v>NIP3</v>
+      <c r="T17" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
@@ -2482,9 +2484,8 @@
       <c r="G19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="6" t="str">
-        <f>SURTUG!$G$30</f>
-        <v>NAMA4</v>
+      <c r="H19" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -2503,9 +2504,8 @@
       <c r="S19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T19" s="6" t="str">
-        <f>SURTUG!$G$30</f>
-        <v>NAMA4</v>
+      <c r="T19" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -2524,9 +2524,8 @@
       <c r="G20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="6" t="str">
-        <f>SURTUG!$G$32</f>
-        <v>NIP4</v>
+      <c r="H20" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -2543,9 +2542,8 @@
       <c r="S20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T20" s="6" t="str">
-        <f>SURTUG!$G$32</f>
-        <v>NIP4</v>
+      <c r="T20" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
@@ -2618,9 +2616,8 @@
       <c r="E23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="6" t="str">
-        <f>SURTUG!$G$43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="F23" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -2637,9 +2634,8 @@
       <c r="Q23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="6" t="str">
-        <f>SURTUG!$G$43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="R23" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
@@ -2658,9 +2654,8 @@
       <c r="E24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="6" t="str">
-        <f>F7</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="F24" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -2677,9 +2672,8 @@
       <c r="Q24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R24" s="6" t="str">
-        <f>R7</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="R24" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
@@ -3224,9 +3218,8 @@
       <c r="G43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="6" t="str">
-        <f>SURTUG!$G$15</f>
-        <v>NAMA1</v>
+      <c r="H43" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -3245,9 +3238,8 @@
       <c r="S43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T43" s="6" t="str">
-        <f>SURTUG!$G$15</f>
-        <v>NAMA1</v>
+      <c r="T43" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
@@ -3292,9 +3284,8 @@
       <c r="G45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="6" t="str">
-        <f>SURTUG!$G$20</f>
-        <v>NAMA2</v>
+      <c r="H45" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -3311,9 +3302,8 @@
       <c r="S45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T45" s="6" t="str">
-        <f>SURTUG!$G$20</f>
-        <v>NAMA2</v>
+      <c r="T45" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
@@ -3358,9 +3348,8 @@
       <c r="G47" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="6" t="str">
-        <f>SURTUG!$G$25</f>
-        <v>NAMA3</v>
+      <c r="H47" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -3377,9 +3366,8 @@
       <c r="S47" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T47" s="6" t="str">
-        <f>SURTUG!$G$25</f>
-        <v>NAMA3</v>
+      <c r="T47" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
@@ -3390,9 +3378,8 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="7" t="str">
-        <f>SURTUG!$G$53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="B48" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -3405,9 +3392,8 @@
       <c r="K48" s="6"/>
       <c r="L48" s="5"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="7" t="str">
-        <f>SURTUG!$G$53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="N48" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
@@ -3422,9 +3408,8 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="8" t="str">
-        <f>SURTUG!$G$54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="B49" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -3433,9 +3418,8 @@
       <c r="G49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="6" t="str">
-        <f>SURTUG!$G$30</f>
-        <v>NAMA4</v>
+      <c r="H49" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -3444,9 +3428,8 @@
         <v>34</v>
       </c>
       <c r="M49" s="6"/>
-      <c r="N49" s="8" t="str">
-        <f>SURTUG!$G$54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="N49" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
@@ -3455,9 +3438,8 @@
       <c r="S49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="T49" s="6" t="str">
-        <f>SURTUG!$G$30</f>
-        <v>NAMA4</v>
+      <c r="T49" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
@@ -3586,8 +3568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,9 +3764,8 @@
       <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="str">
-        <f>SPD!H9</f>
-        <v>NOMOR SPD</v>
+      <c r="H9" t="s">
+        <v>166</v>
       </c>
       <c r="Q9" t="s">
         <v>43</v>
@@ -3792,9 +3773,8 @@
       <c r="R9" t="s">
         <v>6</v>
       </c>
-      <c r="S9" t="str">
-        <f>H9</f>
-        <v>NOMOR SPD</v>
+      <c r="S9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -3952,9 +3932,8 @@
       <c r="D15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="19" t="str">
-        <f>SURTUG!G30</f>
-        <v>NAMA4</v>
+      <c r="E15" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -3972,9 +3951,8 @@
       <c r="O15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P15" s="19" t="str">
-        <f>E15</f>
-        <v>NAMA4</v>
+      <c r="P15" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
@@ -3997,9 +3975,8 @@
       <c r="E16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="20" t="str">
-        <f>SURTUG!G31</f>
-        <v>PANGKAT4</v>
+      <c r="F16" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -4019,9 +3996,8 @@
       <c r="P16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="20" t="str">
-        <f>F16</f>
-        <v>PANGKAT4</v>
+      <c r="Q16" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
@@ -4041,9 +4017,8 @@
       <c r="E17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="20" t="str">
-        <f>SURTUG!G33</f>
-        <v>JABATAN4</v>
+      <c r="F17" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -4061,9 +4036,8 @@
       <c r="P17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="20" t="str">
-        <f>F17</f>
-        <v>JABATAN4</v>
+      <c r="Q17" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
@@ -4260,9 +4234,8 @@
       <c r="D23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="18" t="str">
-        <f>SURTUG!$G$43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="E23" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -4278,9 +4251,8 @@
       <c r="O23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P23" s="18" t="str">
-        <f>SURTUG!R43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="P23" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
@@ -4340,9 +4312,8 @@
       <c r="D25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="20" t="str">
-        <f>SURTUG!J46</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="E25" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
@@ -4358,9 +4329,8 @@
       <c r="O25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="P25" s="20" t="str">
-        <f t="shared" ref="P25:P26" si="0">E25</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="P25" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
@@ -4378,9 +4348,8 @@
       <c r="D26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="18" t="str">
-        <f>SURTUG!J46</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="E26" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -4396,9 +4365,8 @@
       <c r="O26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P26" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="P26" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
@@ -4664,9 +4632,8 @@
       <c r="G34" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="25" t="str">
-        <f>SURTUG!J46</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="H34" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="I34" s="25"/>
       <c r="J34" s="6"/>
@@ -4681,9 +4648,8 @@
       <c r="R34" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="S34" s="25" t="str">
-        <f>SURTUG!J46</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="S34" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="T34" s="25"/>
       <c r="U34" s="6"/>
@@ -4818,9 +4784,8 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="26" t="str">
-        <f>SURTUG!$G$53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="E40" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -4832,9 +4797,8 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="26" t="str">
-        <f>SURTUG!R53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="P40" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
@@ -4848,9 +4812,8 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="16" t="str">
-        <f>SURTUG!$G$54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="E41" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -4862,9 +4825,8 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="16" t="str">
-        <f>SURTUG!R54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="P41" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
@@ -4984,8 +4946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5180,9 +5142,8 @@
       <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="str">
-        <f>SPD!H9</f>
-        <v>NOMOR SPD</v>
+      <c r="H9" t="s">
+        <v>165</v>
       </c>
       <c r="Q9" t="s">
         <v>43</v>
@@ -5190,9 +5151,8 @@
       <c r="R9" t="s">
         <v>6</v>
       </c>
-      <c r="S9" t="str">
-        <f>H9</f>
-        <v>NOMOR SPD</v>
+      <c r="S9" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -5350,9 +5310,8 @@
       <c r="D15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="19" t="str">
-        <f>SURTUG!G25</f>
-        <v>NAMA3</v>
+      <c r="E15" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -5370,9 +5329,8 @@
       <c r="O15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P15" s="19" t="str">
-        <f>E15</f>
-        <v>NAMA3</v>
+      <c r="P15" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
@@ -5395,9 +5353,8 @@
       <c r="E16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="20" t="str">
-        <f>SURTUG!G26</f>
-        <v>PANGKAT3</v>
+      <c r="F16" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -5417,9 +5374,8 @@
       <c r="P16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="20" t="str">
-        <f>F16</f>
-        <v>PANGKAT3</v>
+      <c r="Q16" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
@@ -5439,9 +5395,8 @@
       <c r="E17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="20" t="str">
-        <f>SURTUG!G28</f>
-        <v>JABATAN3</v>
+      <c r="F17" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -5459,9 +5414,8 @@
       <c r="P17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="20" t="str">
-        <f>F17</f>
-        <v>JABATAN3</v>
+      <c r="Q17" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
@@ -5658,9 +5612,8 @@
       <c r="D23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="18" t="str">
-        <f>SURTUG!$G$43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="E23" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -5676,9 +5629,8 @@
       <c r="O23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P23" s="18" t="str">
-        <f>SURTUG!R43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="P23" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
@@ -5738,9 +5690,8 @@
       <c r="D25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="20" t="str">
-        <f>SURTUG!J46</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="E25" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
@@ -5756,9 +5707,8 @@
       <c r="O25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="P25" s="20" t="str">
-        <f t="shared" ref="P25:P26" si="0">E25</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="P25" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
@@ -5776,9 +5726,8 @@
       <c r="D26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="18" t="str">
-        <f>SURTUG!J46</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="E26" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -5794,9 +5743,8 @@
       <c r="O26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P26" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="P26" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
@@ -6062,9 +6010,8 @@
       <c r="G34" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="25" t="str">
-        <f>SURTUG!J46</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="H34" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="I34" s="25"/>
       <c r="J34" s="6"/>
@@ -6079,9 +6026,8 @@
       <c r="R34" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="S34" s="25" t="str">
-        <f>H34</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="S34" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="T34" s="25"/>
       <c r="U34" s="6"/>
@@ -6216,9 +6162,8 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="26" t="str">
-        <f>SURTUG!$G$53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="E40" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -6230,9 +6175,8 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="26" t="str">
-        <f>SURTUG!R53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="P40" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
@@ -6246,9 +6190,8 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="16" t="str">
-        <f>SURTUG!$G$54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="E41" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -6260,9 +6203,8 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="16" t="str">
-        <f>SURTUG!R54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="P41" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
@@ -6382,8 +6324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6578,9 +6520,8 @@
       <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="str">
-        <f>SPD!H9</f>
-        <v>NOMOR SPD</v>
+      <c r="H9" t="s">
+        <v>162</v>
       </c>
       <c r="Q9" t="s">
         <v>43</v>
@@ -6588,9 +6529,8 @@
       <c r="R9" t="s">
         <v>6</v>
       </c>
-      <c r="S9" t="str">
-        <f>H9</f>
-        <v>NOMOR SPD</v>
+      <c r="S9" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -6748,9 +6688,8 @@
       <c r="D15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="19" t="str">
-        <f>SURTUG!G20</f>
-        <v>NAMA2</v>
+      <c r="E15" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -6768,9 +6707,8 @@
       <c r="O15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P15" s="19" t="str">
-        <f>E15</f>
-        <v>NAMA2</v>
+      <c r="P15" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
@@ -6793,9 +6731,8 @@
       <c r="E16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="20" t="str">
-        <f>SURTUG!G21</f>
-        <v>PANGKAT2</v>
+      <c r="F16" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -6815,9 +6752,8 @@
       <c r="P16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="20" t="str">
-        <f>F16</f>
-        <v>PANGKAT2</v>
+      <c r="Q16" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
@@ -6837,9 +6773,8 @@
       <c r="E17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="20" t="str">
-        <f>SURTUG!G23</f>
-        <v>JABATAN2</v>
+      <c r="F17" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -6857,9 +6792,8 @@
       <c r="P17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="20" t="str">
-        <f>F17</f>
-        <v>JABATAN2</v>
+      <c r="Q17" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
@@ -7056,9 +6990,8 @@
       <c r="D23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="18" t="str">
-        <f>SURTUG!$G$43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="E23" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -7074,9 +7007,8 @@
       <c r="O23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P23" s="18" t="str">
-        <f>SURTUG!R43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="P23" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
@@ -7136,9 +7068,8 @@
       <c r="D25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="20" t="str">
-        <f>SURTUG!J46</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="E25" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
@@ -7154,9 +7085,8 @@
       <c r="O25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="P25" s="20" t="str">
-        <f t="shared" ref="P25:P26" si="0">E25</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="P25" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
@@ -7174,9 +7104,8 @@
       <c r="D26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="18" t="str">
-        <f>SURTUG!J46</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="E26" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -7192,9 +7121,8 @@
       <c r="O26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P26" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="P26" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
@@ -7460,9 +7388,8 @@
       <c r="G34" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="25" t="str">
-        <f>SURTUG!J46</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="H34" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="I34" s="25"/>
       <c r="J34" s="6"/>
@@ -7477,9 +7404,8 @@
       <c r="R34" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="S34" s="25" t="str">
-        <f>SURTUG!J46</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="S34" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="T34" s="25"/>
       <c r="U34" s="6"/>
@@ -7614,9 +7540,8 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="26" t="str">
-        <f>SURTUG!$G$53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="E40" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -7628,9 +7553,8 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="26" t="str">
-        <f>SURTUG!R53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="P40" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
@@ -7644,9 +7568,8 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="16" t="str">
-        <f>SURTUG!$G$54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="E41" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -7658,9 +7581,8 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="16" t="str">
-        <f>SURTUG!R54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="P41" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
@@ -7780,8 +7702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19:V20"/>
+    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7977,7 +7899,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="Q9" t="s">
         <v>43</v>
@@ -7985,9 +7907,8 @@
       <c r="R9" t="s">
         <v>6</v>
       </c>
-      <c r="S9" t="str">
-        <f>H9</f>
-        <v>NOMOR SPD</v>
+      <c r="S9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -8145,9 +8066,8 @@
       <c r="D15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="19" t="str">
-        <f>SURTUG!G15</f>
-        <v>NAMA1</v>
+      <c r="E15" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -8165,9 +8085,8 @@
       <c r="O15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P15" s="19" t="str">
-        <f>SURTUG!R15</f>
-        <v>NAMA1</v>
+      <c r="P15" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
@@ -8190,9 +8109,8 @@
       <c r="E16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="20" t="str">
-        <f>SURTUG!G16</f>
-        <v>PANGKAT1</v>
+      <c r="F16" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -8212,9 +8130,8 @@
       <c r="P16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="20" t="str">
-        <f>SURTUG!R16</f>
-        <v>PANGKAT1</v>
+      <c r="Q16" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
@@ -8234,9 +8151,8 @@
       <c r="E17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="20" t="str">
-        <f>SURTUG!G18</f>
-        <v>JABATAN1</v>
+      <c r="F17" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -8254,9 +8170,8 @@
       <c r="P17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="20" t="str">
-        <f>SURTUG!R18</f>
-        <v>JABATAN1</v>
+      <c r="Q17" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
@@ -8471,9 +8386,8 @@
       <c r="O23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P23" s="18" t="str">
-        <f>SURTUG!R43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="P23" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
@@ -8533,9 +8447,8 @@
       <c r="D25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="20" t="str">
-        <f>SURTUG!J46</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="E25" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
@@ -8551,9 +8464,8 @@
       <c r="O25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="P25" s="20" t="str">
-        <f t="shared" ref="P25:P26" si="0">E25</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="P25" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
@@ -8571,9 +8483,8 @@
       <c r="D26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="18" t="str">
-        <f>SURTUG!J46</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="E26" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -8589,9 +8500,8 @@
       <c r="O26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P26" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="P26" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
@@ -8857,9 +8767,8 @@
       <c r="G34" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="25" t="str">
-        <f>E26</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="H34" s="25" t="s">
+        <v>164</v>
       </c>
       <c r="I34" s="25"/>
       <c r="J34" s="6"/>
@@ -8874,9 +8783,8 @@
       <c r="R34" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="S34" s="25" t="str">
-        <f>H34</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="S34" s="25" t="s">
+        <v>164</v>
       </c>
       <c r="T34" s="25"/>
       <c r="U34" s="6"/>
@@ -9011,9 +8919,8 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="26" t="str">
-        <f>SURTUG!$G$53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="E40" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -9025,9 +8932,8 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="26" t="str">
-        <f>SURTUG!R53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="P40" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
@@ -9041,9 +8947,8 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="16" t="str">
-        <f>SURTUG!$G$54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="E41" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -9055,9 +8960,8 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="16" t="str">
-        <f>SURTUG!R54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="P41" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
@@ -9177,8 +9081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AM126"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z99" sqref="Z99"/>
+    <sheetView view="pageLayout" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R127" sqref="R127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9226,60 +9130,57 @@
     <row r="1" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1" s="27"/>
       <c r="F1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="6" t="str">
-        <f>SPD!$S$9</f>
-        <v>NOMOR SPD</v>
+      <c r="M1" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="R1" s="27"/>
       <c r="S1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="U1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="6" t="str">
-        <f>SPD!$S$9</f>
-        <v>NOMOR SPD</v>
+      <c r="Z1" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="AE1" s="27"/>
       <c r="AF1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="AH1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AL1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM1" s="6" t="str">
-        <f>SPD!$S$9</f>
-        <v>NOMOR SPD</v>
+      <c r="AM1" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" s="27"/>
       <c r="G2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>6</v>
@@ -9295,7 +9196,7 @@
       </c>
       <c r="R2" s="27"/>
       <c r="T2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>6</v>
@@ -9311,7 +9212,7 @@
       </c>
       <c r="AE2" s="27"/>
       <c r="AG2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="4" t="s">
         <v>6</v>
@@ -9329,21 +9230,21 @@
     <row r="3" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="27"/>
       <c r="G3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R3" s="27"/>
       <c r="T3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE3" s="27"/>
       <c r="AG3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="27"/>
       <c r="G4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>6</v>
@@ -9351,13 +9252,12 @@
       <c r="L4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="4" t="str">
-        <f>SURTUG!$G$36</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="M4" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="R4" s="27"/>
       <c r="T4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>6</v>
@@ -9365,13 +9265,12 @@
       <c r="Y4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="4" t="str">
-        <f>SURTUG!$G$36</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="Z4" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="AE4" s="27"/>
       <c r="AG4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>6</v>
@@ -9379,15 +9278,14 @@
       <c r="AL4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM4" s="4" t="str">
-        <f>SURTUG!$G$36</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="AM4" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" s="27"/>
       <c r="G5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>6</v>
@@ -9395,13 +9293,12 @@
       <c r="L5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="6" t="str">
-        <f>SURTUG!$G$43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="M5" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="R5" s="27"/>
       <c r="T5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>6</v>
@@ -9409,13 +9306,12 @@
       <c r="Y5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="6" t="str">
-        <f>SURTUG!$G$43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="Z5" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="AE5" s="27"/>
       <c r="AG5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" s="4" t="s">
         <v>6</v>
@@ -9423,9 +9319,8 @@
       <c r="AL5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM5" s="6" t="str">
-        <f>SURTUG!$G$43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="AM5" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9481,21 +9376,20 @@
     </row>
     <row r="9" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="str">
-        <f>M5</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="D9" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="E9" s="27"/>
       <c r="G9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>6</v>
@@ -9503,26 +9397,24 @@
       <c r="L9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="6" t="str">
-        <f>D9</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="M9" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="P9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="6" t="str">
-        <f>Z5</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="Q9" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="R9" s="27"/>
       <c r="T9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>6</v>
@@ -9530,26 +9422,24 @@
       <c r="Y9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z9" s="6" t="str">
-        <f>Q9</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="Z9" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="AA9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AB9" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="AC9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AD9" s="6" t="str">
-        <f>AM5</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="AD9" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="AE9" s="27"/>
       <c r="AG9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>6</v>
@@ -9559,23 +9449,22 @@
       </c>
       <c r="AM9" s="6" t="str">
         <f>AD9</f>
-        <v>NAMA PUSKESMAS</v>
+        <v>p</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="str">
-        <f>M4</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="D10" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="E10" s="27"/>
       <c r="G10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>6</v>
@@ -9588,18 +9477,17 @@
         <v>Tana Paser</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="4" t="str">
-        <f>Z4</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="Q10" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="R10" s="27"/>
       <c r="T10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>6</v>
@@ -9612,18 +9500,17 @@
         <v>Tana Paser</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AD10" s="4" t="str">
-        <f>AM4</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="AD10" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="AE10" s="27"/>
       <c r="AG10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH10" s="4" t="s">
         <v>6</v>
@@ -9638,14 +9525,14 @@
     </row>
     <row r="11" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="27"/>
       <c r="G11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>6</v>
@@ -9653,19 +9540,18 @@
       <c r="L11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="4" t="str">
-        <f>SURTUG!G37</f>
-        <v>TANGGAL PULANG</v>
+      <c r="M11" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R11" s="27"/>
       <c r="T11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U11" s="4" t="s">
         <v>6</v>
@@ -9673,19 +9559,18 @@
       <c r="Y11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z11" s="4" t="str">
-        <f>SURTUG!$G$37</f>
-        <v>TANGGAL PULANG</v>
+      <c r="Z11" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE11" s="27"/>
       <c r="AG11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH11" s="4" t="s">
         <v>6</v>
@@ -9693,15 +9578,14 @@
       <c r="AL11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM11" s="4" t="str">
-        <f>SURTUG!$G$37</f>
-        <v>TANGGAL PULANG</v>
+      <c r="AM11" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="27"/>
       <c r="G12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>6</v>
@@ -9711,7 +9595,7 @@
       </c>
       <c r="R12" s="27"/>
       <c r="T12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U12" s="4" t="s">
         <v>6</v>
@@ -9721,7 +9605,7 @@
       </c>
       <c r="AE12" s="27"/>
       <c r="AG12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH12" s="4" t="s">
         <v>6</v>
@@ -9788,17 +9672,17 @@
     </row>
     <row r="17" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="27"/>
       <c r="G17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>6</v>
@@ -9807,17 +9691,17 @@
         <v>6</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R17" s="27"/>
       <c r="T17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U17" s="4" t="s">
         <v>6</v>
@@ -9826,17 +9710,17 @@
         <v>6</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE17" s="27"/>
       <c r="AG17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH17" s="4" t="s">
         <v>6</v>
@@ -9847,14 +9731,14 @@
     </row>
     <row r="18" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="27"/>
       <c r="G18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>6</v>
@@ -9863,14 +9747,14 @@
         <v>6</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R18" s="27"/>
       <c r="T18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U18" s="4" t="s">
         <v>6</v>
@@ -9879,14 +9763,14 @@
         <v>6</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE18" s="27"/>
       <c r="AG18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH18" s="4" t="s">
         <v>6</v>
@@ -9897,14 +9781,14 @@
     </row>
     <row r="19" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="27"/>
       <c r="G19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>6</v>
@@ -9913,14 +9797,14 @@
         <v>6</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R19" s="27"/>
       <c r="T19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U19" s="4" t="s">
         <v>6</v>
@@ -9929,14 +9813,14 @@
         <v>6</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE19" s="27"/>
       <c r="AG19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH19" s="4" t="s">
         <v>6</v>
@@ -9948,7 +9832,7 @@
     <row r="20" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="27"/>
       <c r="G20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>6</v>
@@ -9958,7 +9842,7 @@
       </c>
       <c r="R20" s="27"/>
       <c r="T20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U20" s="4" t="s">
         <v>6</v>
@@ -9968,7 +9852,7 @@
       </c>
       <c r="AE20" s="27"/>
       <c r="AG20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH20" s="4" t="s">
         <v>6</v>
@@ -10035,10 +9919,10 @@
     </row>
     <row r="25" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>6</v>
@@ -10047,10 +9931,10 @@
         <v>59</v>
       </c>
       <c r="Q25" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S25" s="4" t="s">
         <v>6</v>
@@ -10059,10 +9943,10 @@
         <v>59</v>
       </c>
       <c r="AD25" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF25" s="4" t="s">
         <v>6</v>
@@ -10073,39 +9957,36 @@
     </row>
     <row r="26" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E26" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="4" t="str">
-        <f>M11</f>
-        <v>TANGGAL PULANG</v>
+      <c r="G26" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T26" s="4" t="str">
-        <f>Z11</f>
-        <v>TANGGAL PULANG</v>
+      <c r="T26" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AG26" s="4" t="str">
-        <f>AM11</f>
-        <v>TANGGAL PULANG</v>
+      <c r="AG26" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E27" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="53"/>
       <c r="G27" s="53"/>
@@ -10116,7 +9997,7 @@
       <c r="L27" s="53"/>
       <c r="M27" s="53"/>
       <c r="R27" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S27" s="53"/>
       <c r="T27" s="53"/>
@@ -10127,7 +10008,7 @@
       <c r="Y27" s="53"/>
       <c r="Z27" s="53"/>
       <c r="AE27" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF27" s="53"/>
       <c r="AG27" s="53"/>
@@ -10237,9 +10118,8 @@
       </c>
     </row>
     <row r="35" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="26" t="str">
-        <f>SURTUG!$G$53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="E35" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -10248,9 +10128,8 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
-      <c r="R35" s="26" t="str">
-        <f>SURTUG!$G$53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="R35" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
@@ -10259,9 +10138,8 @@
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
-      <c r="AE35" s="26" t="str">
-        <f>SURTUG!$G$53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="AE35" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="AF35" s="16"/>
       <c r="AG35" s="16"/>
@@ -10272,9 +10150,8 @@
       <c r="AL35" s="16"/>
     </row>
     <row r="36" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E36" s="33" t="str">
-        <f>SURTUG!$G$54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="E36" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -10283,9 +10160,8 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
-      <c r="R36" s="33" t="str">
-        <f>SURTUG!$G$54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="R36" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
@@ -10294,9 +10170,8 @@
       <c r="W36" s="16"/>
       <c r="X36" s="16"/>
       <c r="Y36" s="16"/>
-      <c r="AE36" s="33" t="str">
-        <f>SURTUG!$G$54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="AE36" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="AF36" s="16"/>
       <c r="AG36" s="16"/>
@@ -10331,10 +10206,10 @@
     </row>
     <row r="38" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>92</v>
       </c>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
@@ -10348,10 +10223,10 @@
       <c r="L38" s="34"/>
       <c r="M38" s="34"/>
       <c r="N38" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="O38" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="O38" s="34" t="s">
-        <v>92</v>
       </c>
       <c r="P38" s="34"/>
       <c r="Q38" s="34"/>
@@ -10365,10 +10240,10 @@
       <c r="Y38" s="34"/>
       <c r="Z38" s="34"/>
       <c r="AA38" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB38" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="AB38" s="34" t="s">
-        <v>92</v>
       </c>
       <c r="AC38" s="34"/>
       <c r="AD38" s="34"/>
@@ -10385,60 +10260,57 @@
     <row r="45" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E45" s="27"/>
       <c r="F45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="H45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M45" s="6" t="str">
-        <f>SPD!$S$9</f>
-        <v>NOMOR SPD</v>
+      <c r="M45" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="R45" s="27"/>
       <c r="S45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="T45" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="U45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Y45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z45" s="6" t="str">
-        <f>SPD!$S$9</f>
-        <v>NOMOR SPD</v>
+      <c r="Z45" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="AE45" s="27"/>
       <c r="AF45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AG45" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="AH45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AL45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM45" s="6" t="str">
-        <f>SPD!$S$9</f>
-        <v>NOMOR SPD</v>
+      <c r="AM45" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E46" s="27"/>
       <c r="G46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>6</v>
@@ -10454,7 +10326,7 @@
       </c>
       <c r="R46" s="27"/>
       <c r="T46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U46" s="4" t="s">
         <v>6</v>
@@ -10470,7 +10342,7 @@
       </c>
       <c r="AE46" s="27"/>
       <c r="AG46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH46" s="4" t="s">
         <v>6</v>
@@ -10488,21 +10360,21 @@
     <row r="47" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E47" s="27"/>
       <c r="G47" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R47" s="27"/>
       <c r="T47" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE47" s="27"/>
       <c r="AG47" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E48" s="27"/>
       <c r="G48" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>6</v>
@@ -10510,13 +10382,12 @@
       <c r="L48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M48" s="4" t="str">
-        <f>SURTUG!$G$36</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="M48" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="R48" s="27"/>
       <c r="T48" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U48" s="4" t="s">
         <v>6</v>
@@ -10524,13 +10395,12 @@
       <c r="Y48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z48" s="4" t="str">
-        <f>SURTUG!$G$36</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="Z48" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="AE48" s="27"/>
       <c r="AG48" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH48" s="4" t="s">
         <v>6</v>
@@ -10538,15 +10408,14 @@
       <c r="AL48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM48" s="4" t="str">
-        <f>SURTUG!$G$36</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="AM48" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E49" s="27"/>
       <c r="G49" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>6</v>
@@ -10554,13 +10423,12 @@
       <c r="L49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M49" s="6" t="str">
-        <f>SURTUG!$G$43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="M49" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="R49" s="27"/>
       <c r="T49" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U49" s="4" t="s">
         <v>6</v>
@@ -10568,13 +10436,12 @@
       <c r="Y49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z49" s="6" t="str">
-        <f>SURTUG!$G$43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="Z49" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="AE49" s="27"/>
       <c r="AG49" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH49" s="4" t="s">
         <v>6</v>
@@ -10582,9 +10449,8 @@
       <c r="AL49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM49" s="6" t="str">
-        <f>SURTUG!$G$43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="AM49" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -10640,21 +10506,20 @@
     </row>
     <row r="53" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="C53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="6" t="str">
-        <f>M49</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="D53" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="E53" s="27"/>
       <c r="G53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>6</v>
@@ -10662,26 +10527,24 @@
       <c r="L53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M53" s="6" t="str">
-        <f>D53</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="M53" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="N53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="O53" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="P53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q53" s="6" t="str">
-        <f>Z49</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="Q53" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="R53" s="27"/>
       <c r="T53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U53" s="4" t="s">
         <v>6</v>
@@ -10689,26 +10552,24 @@
       <c r="Y53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z53" s="6" t="str">
-        <f>Q53</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="Z53" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="AA53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AB53" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="AC53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AD53" s="6" t="str">
-        <f>AM49</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="AD53" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="AE53" s="27"/>
       <c r="AG53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH53" s="4" t="s">
         <v>6</v>
@@ -10716,25 +10577,23 @@
       <c r="AL53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM53" s="6" t="str">
-        <f>AD53</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="AM53" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="4" t="str">
-        <f>M48</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="D54" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="E54" s="27"/>
       <c r="G54" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>6</v>
@@ -10747,18 +10606,17 @@
         <v>Tana Paser</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q54" s="4" t="str">
-        <f>Z48</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="Q54" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="R54" s="27"/>
       <c r="T54" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U54" s="4" t="s">
         <v>6</v>
@@ -10771,18 +10629,17 @@
         <v>Tana Paser</v>
       </c>
       <c r="AB54" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC54" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AD54" s="4" t="str">
-        <f>AM48</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="AD54" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="AE54" s="27"/>
       <c r="AG54" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH54" s="4" t="s">
         <v>6</v>
@@ -10797,14 +10654,14 @@
     </row>
     <row r="55" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="27"/>
       <c r="G55" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>6</v>
@@ -10812,19 +10669,18 @@
       <c r="L55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M55" s="4" t="str">
-        <f>SURTUG!$G$37</f>
-        <v>TANGGAL PULANG</v>
+      <c r="M55" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R55" s="27"/>
       <c r="T55" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U55" s="4" t="s">
         <v>6</v>
@@ -10832,19 +10688,18 @@
       <c r="Y55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z55" s="4" t="str">
-        <f>SURTUG!$G$37</f>
-        <v>TANGGAL PULANG</v>
+      <c r="Z55" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="AB55" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC55" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE55" s="27"/>
       <c r="AG55" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH55" s="4" t="s">
         <v>6</v>
@@ -10852,15 +10707,14 @@
       <c r="AL55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM55" s="4" t="str">
-        <f>SURTUG!$G$37</f>
-        <v>TANGGAL PULANG</v>
+      <c r="AM55" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E56" s="27"/>
       <c r="G56" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>6</v>
@@ -10870,7 +10724,7 @@
       </c>
       <c r="R56" s="27"/>
       <c r="T56" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U56" s="4" t="s">
         <v>6</v>
@@ -10880,7 +10734,7 @@
       </c>
       <c r="AE56" s="27"/>
       <c r="AG56" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH56" s="4" t="s">
         <v>6</v>
@@ -10947,17 +10801,17 @@
     </row>
     <row r="61" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="27"/>
       <c r="G61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>6</v>
@@ -10966,17 +10820,17 @@
         <v>6</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R61" s="27"/>
       <c r="T61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U61" s="4" t="s">
         <v>6</v>
@@ -10985,17 +10839,17 @@
         <v>6</v>
       </c>
       <c r="AA61" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB61" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC61" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE61" s="27"/>
       <c r="AG61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH61" s="4" t="s">
         <v>6</v>
@@ -11006,14 +10860,14 @@
     </row>
     <row r="62" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="27"/>
       <c r="G62" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>6</v>
@@ -11022,14 +10876,14 @@
         <v>6</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R62" s="27"/>
       <c r="T62" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U62" s="4" t="s">
         <v>6</v>
@@ -11038,14 +10892,14 @@
         <v>6</v>
       </c>
       <c r="AB62" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE62" s="27"/>
       <c r="AG62" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH62" s="4" t="s">
         <v>6</v>
@@ -11056,14 +10910,14 @@
     </row>
     <row r="63" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="27"/>
       <c r="G63" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>6</v>
@@ -11072,14 +10926,14 @@
         <v>6</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R63" s="27"/>
       <c r="T63" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U63" s="4" t="s">
         <v>6</v>
@@ -11088,14 +10942,14 @@
         <v>6</v>
       </c>
       <c r="AB63" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC63" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE63" s="27"/>
       <c r="AG63" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH63" s="4" t="s">
         <v>6</v>
@@ -11107,7 +10961,7 @@
     <row r="64" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E64" s="27"/>
       <c r="G64" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>6</v>
@@ -11117,7 +10971,7 @@
       </c>
       <c r="R64" s="27"/>
       <c r="T64" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U64" s="4" t="s">
         <v>6</v>
@@ -11127,7 +10981,7 @@
       </c>
       <c r="AE64" s="27"/>
       <c r="AG64" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH64" s="4" t="s">
         <v>6</v>
@@ -11194,10 +11048,10 @@
     </row>
     <row r="69" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D69" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>6</v>
@@ -11206,10 +11060,10 @@
         <v>59</v>
       </c>
       <c r="Q69" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S69" s="4" t="s">
         <v>6</v>
@@ -11218,10 +11072,10 @@
         <v>59</v>
       </c>
       <c r="AD69" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE69" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF69" s="4" t="s">
         <v>6</v>
@@ -11232,39 +11086,36 @@
     </row>
     <row r="70" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E70" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G70" s="4" t="str">
-        <f>M55</f>
-        <v>TANGGAL PULANG</v>
+      <c r="G70" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T70" s="4" t="str">
-        <f>Z55</f>
-        <v>TANGGAL PULANG</v>
+      <c r="T70" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="AE70" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AG70" s="4" t="str">
-        <f>AM55</f>
-        <v>TANGGAL PULANG</v>
+      <c r="AG70" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E71" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F71" s="53"/>
       <c r="G71" s="53"/>
@@ -11275,7 +11126,7 @@
       <c r="L71" s="53"/>
       <c r="M71" s="53"/>
       <c r="R71" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S71" s="53"/>
       <c r="T71" s="53"/>
@@ -11286,7 +11137,7 @@
       <c r="Y71" s="53"/>
       <c r="Z71" s="53"/>
       <c r="AE71" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF71" s="53"/>
       <c r="AG71" s="53"/>
@@ -11396,9 +11247,8 @@
       </c>
     </row>
     <row r="79" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="26" t="str">
-        <f>SURTUG!$G$53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="E79" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
@@ -11407,9 +11257,8 @@
       <c r="J79" s="16"/>
       <c r="K79" s="16"/>
       <c r="L79" s="16"/>
-      <c r="R79" s="26" t="str">
-        <f>SURTUG!$G$53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="R79" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="S79" s="16"/>
       <c r="T79" s="16"/>
@@ -11418,9 +11267,8 @@
       <c r="W79" s="16"/>
       <c r="X79" s="16"/>
       <c r="Y79" s="16"/>
-      <c r="AE79" s="26" t="str">
-        <f>SURTUG!$G$53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="AE79" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="AF79" s="16"/>
       <c r="AG79" s="16"/>
@@ -11431,9 +11279,8 @@
       <c r="AL79" s="16"/>
     </row>
     <row r="80" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E80" s="33" t="str">
-        <f>SURTUG!$G$54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="E80" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
@@ -11442,9 +11289,8 @@
       <c r="J80" s="16"/>
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
-      <c r="R80" s="33" t="str">
-        <f>SURTUG!$G$54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="R80" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="S80" s="16"/>
       <c r="T80" s="16"/>
@@ -11453,9 +11299,8 @@
       <c r="W80" s="16"/>
       <c r="X80" s="16"/>
       <c r="Y80" s="16"/>
-      <c r="AE80" s="33" t="str">
-        <f>SURTUG!$G$54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="AE80" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="AF80" s="16"/>
       <c r="AG80" s="16"/>
@@ -11490,10 +11335,10 @@
     </row>
     <row r="82" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="B82" s="34" t="s">
-        <v>92</v>
       </c>
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
@@ -11507,10 +11352,10 @@
       <c r="L82" s="34"/>
       <c r="M82" s="34"/>
       <c r="N82" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="O82" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="O82" s="34" t="s">
-        <v>92</v>
       </c>
       <c r="P82" s="34"/>
       <c r="Q82" s="34"/>
@@ -11524,10 +11369,10 @@
       <c r="Y82" s="34"/>
       <c r="Z82" s="34"/>
       <c r="AA82" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB82" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="AB82" s="34" t="s">
-        <v>92</v>
       </c>
       <c r="AC82" s="34"/>
       <c r="AD82" s="34"/>
@@ -11544,43 +11389,41 @@
     <row r="89" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E89" s="27"/>
       <c r="F89" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="H89" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M89" s="6" t="str">
-        <f>SPD!$S$9</f>
-        <v>NOMOR SPD</v>
+      <c r="M89" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="R89" s="27"/>
       <c r="S89" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T89" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="T89" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="U89" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Y89" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z89" s="6" t="str">
-        <f>SPD!$S$9</f>
-        <v>NOMOR SPD</v>
+      <c r="Z89" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E90" s="27"/>
       <c r="G90" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>6</v>
@@ -11596,7 +11439,7 @@
       </c>
       <c r="R90" s="27"/>
       <c r="T90" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U90" s="4" t="s">
         <v>6</v>
@@ -11614,17 +11457,17 @@
     <row r="91" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E91" s="27"/>
       <c r="G91" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R91" s="27"/>
       <c r="T91" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E92" s="27"/>
       <c r="G92" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>6</v>
@@ -11638,7 +11481,7 @@
       </c>
       <c r="R92" s="27"/>
       <c r="T92" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U92" s="4" t="s">
         <v>6</v>
@@ -11646,15 +11489,14 @@
       <c r="Y92" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z92" s="4" t="str">
-        <f>SURTUG!$G$36</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="Z92" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E93" s="27"/>
       <c r="G93" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>6</v>
@@ -11662,13 +11504,12 @@
       <c r="L93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M93" s="6" t="str">
-        <f>SURTUG!$G$43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="M93" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="R93" s="27"/>
       <c r="T93" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U93" s="4" t="s">
         <v>6</v>
@@ -11676,9 +11517,8 @@
       <c r="Y93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z93" s="6" t="str">
-        <f>SURTUG!$G$43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="Z93" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:39" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -11719,21 +11559,20 @@
     </row>
     <row r="97" spans="1:26" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="C97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="6" t="str">
-        <f>M93</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="D97" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="E97" s="27"/>
       <c r="G97" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>6</v>
@@ -11741,26 +11580,24 @@
       <c r="L97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M97" s="6" t="str">
-        <f>D97</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="M97" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="N97" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O97" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="O97" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="P97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q97" s="6" t="str">
-        <f>Z93</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="Q97" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="R97" s="27"/>
       <c r="T97" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U97" s="4" t="s">
         <v>6</v>
@@ -11768,25 +11605,23 @@
       <c r="Y97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z97" s="6" t="str">
-        <f>Q97</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="Z97" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="4" t="str">
-        <f>M92</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="D98" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="E98" s="27"/>
       <c r="G98" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>6</v>
@@ -11799,18 +11634,17 @@
         <v>Tana Paser</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P98" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q98" s="4" t="str">
-        <f>Z92</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="Q98" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="R98" s="27"/>
       <c r="T98" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U98" s="4" t="s">
         <v>6</v>
@@ -11825,18 +11659,17 @@
     </row>
     <row r="99" spans="1:26" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="4" t="str">
-        <f>M93</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="D99" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="E99" s="27"/>
       <c r="G99" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>6</v>
@@ -11844,23 +11677,21 @@
       <c r="L99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M99" s="4" t="str">
-        <f>SURTUG!$G$37</f>
-        <v>TANGGAL PULANG</v>
+      <c r="M99" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q99" s="4" t="str">
-        <f>Z93</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="Q99" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="R99" s="27"/>
       <c r="T99" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U99" s="4" t="s">
         <v>6</v>
@@ -11868,15 +11699,14 @@
       <c r="Y99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z99" s="4" t="str">
-        <f>SURTUG!$G$37</f>
-        <v>TANGGAL PULANG</v>
+      <c r="Z99" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E100" s="27"/>
       <c r="G100" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>6</v>
@@ -11886,7 +11716,7 @@
       </c>
       <c r="R100" s="27"/>
       <c r="T100" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U100" s="4" t="s">
         <v>6</v>
@@ -11937,17 +11767,17 @@
     </row>
     <row r="105" spans="1:26" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E105" s="27"/>
       <c r="G105" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>6</v>
@@ -11956,17 +11786,17 @@
         <v>6</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P105" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R105" s="27"/>
       <c r="T105" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U105" s="4" t="s">
         <v>6</v>
@@ -11977,14 +11807,14 @@
     </row>
     <row r="106" spans="1:26" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E106" s="27"/>
       <c r="G106" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>6</v>
@@ -11993,14 +11823,14 @@
         <v>6</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P106" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R106" s="27"/>
       <c r="T106" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U106" s="4" t="s">
         <v>6</v>
@@ -12011,14 +11841,14 @@
     </row>
     <row r="107" spans="1:26" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E107" s="27"/>
       <c r="G107" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>6</v>
@@ -12027,14 +11857,14 @@
         <v>6</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P107" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R107" s="27"/>
       <c r="T107" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U107" s="4" t="s">
         <v>6</v>
@@ -12046,7 +11876,7 @@
     <row r="108" spans="1:26" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E108" s="27"/>
       <c r="G108" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>6</v>
@@ -12056,7 +11886,7 @@
       </c>
       <c r="R108" s="27"/>
       <c r="T108" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U108" s="4" t="s">
         <v>6</v>
@@ -12107,10 +11937,10 @@
     </row>
     <row r="113" spans="1:26" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D113" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>6</v>
@@ -12119,10 +11949,10 @@
         <v>59</v>
       </c>
       <c r="Q113" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R113" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S113" s="4" t="s">
         <v>6</v>
@@ -12133,29 +11963,27 @@
     </row>
     <row r="114" spans="1:26" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E114" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G114" s="4" t="str">
-        <f>M99</f>
-        <v>TANGGAL PULANG</v>
+      <c r="G114" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="R114" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S114" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T114" s="4" t="str">
-        <f>Z99</f>
-        <v>TANGGAL PULANG</v>
+      <c r="T114" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:26" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E115" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F115" s="53"/>
       <c r="G115" s="53"/>
@@ -12166,7 +11994,7 @@
       <c r="L115" s="53"/>
       <c r="M115" s="53"/>
       <c r="R115" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S115" s="53"/>
       <c r="T115" s="53"/>
@@ -12246,9 +12074,8 @@
       </c>
     </row>
     <row r="123" spans="1:26" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E123" s="26" t="str">
-        <f>SURTUG!$G$53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="E123" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
@@ -12257,9 +12084,8 @@
       <c r="J123" s="16"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
-      <c r="R123" s="26" t="str">
-        <f>SURTUG!$G$53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="R123" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="S123" s="16"/>
       <c r="T123" s="16"/>
@@ -12270,9 +12096,8 @@
       <c r="Y123" s="16"/>
     </row>
     <row r="124" spans="1:26" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E124" s="33" t="str">
-        <f>SURTUG!$G$54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="E124" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
@@ -12281,9 +12106,8 @@
       <c r="J124" s="16"/>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
-      <c r="R124" s="33" t="str">
-        <f>SURTUG!$G$54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="R124" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="S124" s="16"/>
       <c r="T124" s="16"/>
@@ -12311,10 +12135,10 @@
     </row>
     <row r="126" spans="1:26" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B126" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="B126" s="34" t="s">
-        <v>92</v>
       </c>
       <c r="C126" s="34"/>
       <c r="D126" s="34"/>
@@ -12328,10 +12152,10 @@
       <c r="L126" s="34"/>
       <c r="M126" s="34"/>
       <c r="N126" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="O126" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="O126" s="34" t="s">
-        <v>92</v>
       </c>
       <c r="P126" s="34"/>
       <c r="Q126" s="34"/>
@@ -12365,8 +12189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:L26"/>
+    <sheetView view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12580,7 +12404,7 @@
     </row>
     <row r="8" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -12594,7 +12418,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N8" s="36"/>
       <c r="O8" s="36"/>
@@ -12636,7 +12460,7 @@
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -12645,7 +12469,7 @@
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
@@ -12654,7 +12478,7 @@
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
       <c r="M10" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N10" s="37"/>
       <c r="O10" s="37"/>
@@ -12663,7 +12487,7 @@
       </c>
       <c r="Q10" s="37"/>
       <c r="R10" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
@@ -12700,7 +12524,7 @@
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -12709,7 +12533,7 @@
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
@@ -12718,7 +12542,7 @@
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
@@ -12727,7 +12551,7 @@
       </c>
       <c r="Q12" s="37"/>
       <c r="R12" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
@@ -12772,9 +12596,8 @@
         <v>6</v>
       </c>
       <c r="E14" s="37"/>
-      <c r="F14" s="37" t="str">
-        <f>SURTUG!G36</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="F14" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -12791,9 +12614,8 @@
         <v>6</v>
       </c>
       <c r="Q14" s="37"/>
-      <c r="R14" s="37" t="str">
-        <f>F14</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="R14" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="S14" s="37"/>
       <c r="T14" s="37"/>
@@ -12838,9 +12660,8 @@
         <v>6</v>
       </c>
       <c r="E16" s="37"/>
-      <c r="F16" s="37" t="str">
-        <f>SURTUG!$G$11</f>
-        <v>NOMOR NOTA DINAS</v>
+      <c r="F16" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
@@ -12857,9 +12678,8 @@
         <v>6</v>
       </c>
       <c r="Q16" s="37"/>
-      <c r="R16" s="37" t="str">
-        <f>SURTUG!$G$11</f>
-        <v>NOMOR NOTA DINAS</v>
+      <c r="R16" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
@@ -12896,7 +12716,7 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -12905,7 +12725,7 @@
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
@@ -12914,7 +12734,7 @@
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
       <c r="M18" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N18" s="37"/>
       <c r="O18" s="37"/>
@@ -12923,7 +12743,7 @@
       </c>
       <c r="Q18" s="37"/>
       <c r="R18" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
@@ -12960,7 +12780,7 @@
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -12978,7 +12798,7 @@
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
       <c r="M20" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N20" s="37"/>
       <c r="O20" s="37"/>
@@ -13024,7 +12844,7 @@
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -13033,7 +12853,7 @@
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -13042,7 +12862,7 @@
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
       <c r="M22" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N22" s="37"/>
       <c r="O22" s="37"/>
@@ -13051,7 +12871,7 @@
       </c>
       <c r="Q22" s="37"/>
       <c r="R22" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S22" s="37"/>
       <c r="T22" s="37"/>
@@ -13114,7 +12934,7 @@
     </row>
     <row r="25" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -13133,7 +12953,7 @@
       <c r="K25" s="56"/>
       <c r="L25" s="56"/>
       <c r="M25" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N25" s="37"/>
       <c r="O25" s="37"/>
@@ -13142,7 +12962,7 @@
       </c>
       <c r="Q25" s="37"/>
       <c r="R25" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S25" s="56"/>
       <c r="T25" s="56"/>
@@ -13205,7 +13025,7 @@
     </row>
     <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -13214,7 +13034,7 @@
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G28" s="57"/>
       <c r="H28" s="57"/>
@@ -13223,7 +13043,7 @@
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
       <c r="M28" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
@@ -13232,7 +13052,7 @@
       </c>
       <c r="Q28" s="37"/>
       <c r="R28" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S28" s="57"/>
       <c r="T28" s="57"/>
@@ -13269,7 +13089,7 @@
     </row>
     <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -13279,9 +13099,8 @@
       <c r="E30" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="39" t="str">
-        <f>SURTUG!$G$15</f>
-        <v>NAMA1</v>
+      <c r="F30" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
@@ -13290,7 +13109,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
       <c r="M30" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
@@ -13300,9 +13119,8 @@
       <c r="Q30" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="R30" s="39" t="str">
-        <f>SURTUG!$G$15</f>
-        <v>NAMA1</v>
+      <c r="R30" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
@@ -13317,9 +13135,8 @@
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
-      <c r="F31" s="37" t="str">
-        <f>SURTUG!$G$18</f>
-        <v>JABATAN1</v>
+      <c r="F31" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
@@ -13332,9 +13149,8 @@
       <c r="O31" s="37"/>
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
-      <c r="R31" s="37" t="str">
-        <f>SURTUG!$G$18</f>
-        <v>JABATAN1</v>
+      <c r="R31" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
@@ -13351,9 +13167,8 @@
       <c r="E32" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="39" t="str">
-        <f>SURTUG!$G$20</f>
-        <v>NAMA2</v>
+      <c r="F32" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
@@ -13368,9 +13183,8 @@
       <c r="Q32" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="R32" s="39" t="str">
-        <f>SURTUG!$G$20</f>
-        <v>NAMA2</v>
+      <c r="R32" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
@@ -13385,9 +13199,8 @@
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
-      <c r="F33" s="37" t="str">
-        <f>SURTUG!$G$23</f>
-        <v>JABATAN2</v>
+      <c r="F33" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
@@ -13400,9 +13213,8 @@
       <c r="O33" s="37"/>
       <c r="P33" s="37"/>
       <c r="Q33" s="37"/>
-      <c r="R33" s="37" t="str">
-        <f>SURTUG!$G$23</f>
-        <v>JABATAN2</v>
+      <c r="R33" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="S33" s="37"/>
       <c r="T33" s="37"/>
@@ -13419,9 +13231,8 @@
       <c r="E34" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="39" t="str">
-        <f>SURTUG!$G$25</f>
-        <v>NAMA3</v>
+      <c r="F34" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
@@ -13436,9 +13247,8 @@
       <c r="Q34" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="R34" s="39" t="str">
-        <f>SURTUG!$G$25</f>
-        <v>NAMA3</v>
+      <c r="R34" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
@@ -13453,9 +13263,8 @@
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
-      <c r="F35" s="37" t="str">
-        <f>SURTUG!$G$28</f>
-        <v>JABATAN3</v>
+      <c r="F35" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
@@ -13468,9 +13277,8 @@
       <c r="O35" s="37"/>
       <c r="P35" s="37"/>
       <c r="Q35" s="37"/>
-      <c r="R35" s="37" t="str">
-        <f>SURTUG!$G$28</f>
-        <v>JABATAN3</v>
+      <c r="R35" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="S35" s="37"/>
       <c r="T35" s="37"/>
@@ -13487,9 +13295,8 @@
       <c r="E36" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="39" t="str">
-        <f>SURTUG!$G$30</f>
-        <v>NAMA4</v>
+      <c r="F36" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
@@ -13504,9 +13311,8 @@
       <c r="Q36" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="R36" s="39" t="str">
-        <f>SURTUG!$G$30</f>
-        <v>NAMA4</v>
+      <c r="R36" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="S36" s="37"/>
       <c r="T36" s="37"/>
@@ -13521,9 +13327,8 @@
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
-      <c r="F37" s="37" t="str">
-        <f>SURTUG!$G$33</f>
-        <v>JABATAN4</v>
+      <c r="F37" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
@@ -13536,9 +13341,8 @@
       <c r="O37" s="37"/>
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
-      <c r="R37" s="37" t="str">
-        <f>SURTUG!$G$33</f>
-        <v>JABATAN4</v>
+      <c r="R37" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="S37" s="37"/>
       <c r="T37" s="37"/>
@@ -13575,7 +13379,7 @@
     </row>
     <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -13584,7 +13388,7 @@
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
@@ -13593,7 +13397,7 @@
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
       <c r="M39" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
@@ -13602,7 +13406,7 @@
       </c>
       <c r="Q39" s="37"/>
       <c r="R39" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S39" s="37"/>
       <c r="T39" s="37"/>
@@ -13639,7 +13443,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -13657,7 +13461,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -13682,13 +13486,13 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -13700,7 +13504,7 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S42" s="4" t="s">
         <v>6</v>
@@ -13742,7 +13546,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -13750,9 +13554,8 @@
         <v>6</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="40" t="str">
-        <f>SURTUG!$G$43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="F44" s="40" t="s">
+        <v>162</v>
       </c>
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
@@ -13761,7 +13564,7 @@
       <c r="K44" s="41"/>
       <c r="L44" s="41"/>
       <c r="M44" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -13769,9 +13572,8 @@
         <v>6</v>
       </c>
       <c r="Q44" s="4"/>
-      <c r="R44" s="40" t="str">
-        <f>SURTUG!$G$43</f>
-        <v>NAMA PUSKESMAS</v>
+      <c r="R44" s="40" t="s">
+        <v>162</v>
       </c>
       <c r="S44" s="41"/>
       <c r="T44" s="41"/>
@@ -13808,7 +13610,7 @@
     </row>
     <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -13822,7 +13624,7 @@
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
       <c r="M46" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
@@ -13871,7 +13673,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I48" s="55"/>
       <c r="J48" s="55"/>
@@ -13885,7 +13687,7 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U48" s="55"/>
       <c r="V48" s="55"/>
@@ -13894,7 +13696,7 @@
     </row>
     <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B49" s="54"/>
       <c r="C49" s="43"/>
@@ -13903,14 +13705,14 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I49" s="55"/>
       <c r="J49" s="55"/>
       <c r="K49" s="55"/>
       <c r="L49" s="55"/>
       <c r="M49" s="54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N49" s="54"/>
       <c r="O49" s="43"/>
@@ -13919,7 +13721,7 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U49" s="55"/>
       <c r="V49" s="55"/>
@@ -14011,7 +13813,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
@@ -14025,7 +13827,7 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="26" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="U53" s="26"/>
       <c r="V53" s="26"/>
@@ -14041,7 +13843,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
@@ -14055,7 +13857,7 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="16" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="U54" s="16"/>
       <c r="V54" s="16"/>
@@ -14085,8 +13887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39:K41"/>
+    <sheetView view="pageLayout" topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14293,7 +14095,7 @@
     </row>
     <row r="8" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -14306,7 +14108,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
@@ -14325,13 +14127,13 @@
       <c r="C9" s="37"/>
       <c r="D9" s="47"/>
       <c r="E9" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
@@ -14342,14 +14144,13 @@
       <c r="N9" s="37"/>
       <c r="O9" s="47"/>
       <c r="P9" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="37" t="str">
-        <f>G9</f>
-        <v>NOMOR SURAT TUGAS</v>
+      <c r="R9" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S9" s="42"/>
       <c r="T9" s="42"/>
@@ -14382,41 +14183,40 @@
     </row>
     <row r="11" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M11" s="37" t="s">
         <v>6</v>
       </c>
       <c r="N11" s="37"/>
       <c r="O11" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P11" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="R11" s="37" t="str">
-        <f>G11</f>
-        <v>NOMOR NOTA DINAS</v>
+        <v>120</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
@@ -14432,9 +14232,8 @@
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
-      <c r="G12" s="37" t="str">
-        <f>G36</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="G12" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
@@ -14446,9 +14245,8 @@
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
-      <c r="R12" s="37" t="str">
-        <f>G12</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="R12" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
@@ -14457,7 +14255,7 @@
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
@@ -14470,7 +14268,7 @@
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
       <c r="L13" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
@@ -14509,7 +14307,7 @@
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>6</v>
@@ -14525,14 +14323,14 @@
         <v>6</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>6</v>
@@ -14547,9 +14345,8 @@
       <c r="Q15" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R15" s="37" t="str">
-        <f>G15</f>
-        <v>NAMA1</v>
+      <c r="R15" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
@@ -14561,14 +14358,14 @@
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -14578,15 +14375,14 @@
       <c r="M16" s="37"/>
       <c r="N16" s="37"/>
       <c r="O16" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P16" s="37"/>
       <c r="Q16" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R16" s="37" t="str">
-        <f t="shared" ref="R16:R18" si="0">G16</f>
-        <v>PANGKAT1</v>
+      <c r="R16" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
@@ -14605,7 +14401,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
@@ -14621,9 +14417,8 @@
       <c r="Q17" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>NIP1</v>
+      <c r="R17" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
@@ -14635,14 +14430,14 @@
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
@@ -14652,15 +14447,14 @@
       <c r="M18" s="37"/>
       <c r="N18" s="37"/>
       <c r="O18" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P18" s="37"/>
       <c r="Q18" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R18" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>JABATAN1</v>
+      <c r="R18" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
@@ -14705,7 +14499,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
@@ -14723,9 +14517,8 @@
       <c r="Q20" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R20" s="37" t="str">
-        <f>G20</f>
-        <v>NAMA2</v>
+      <c r="R20" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S20" s="37"/>
       <c r="T20" s="37"/>
@@ -14737,14 +14530,14 @@
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
@@ -14754,15 +14547,14 @@
       <c r="M21" s="37"/>
       <c r="N21" s="37"/>
       <c r="O21" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P21" s="37"/>
       <c r="Q21" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R21" s="37" t="str">
-        <f t="shared" ref="R21:R23" si="1">G21</f>
-        <v>PANGKAT2</v>
+      <c r="R21" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
@@ -14781,7 +14573,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
@@ -14797,9 +14589,8 @@
       <c r="Q22" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R22" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v>NIP2</v>
+      <c r="R22" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S22" s="37"/>
       <c r="T22" s="37"/>
@@ -14811,14 +14602,14 @@
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
@@ -14828,15 +14619,14 @@
       <c r="M23" s="37"/>
       <c r="N23" s="37"/>
       <c r="O23" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P23" s="37"/>
       <c r="Q23" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v>JABATAN2</v>
+      <c r="R23" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S23" s="37"/>
       <c r="T23" s="37"/>
@@ -14881,7 +14671,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
@@ -14899,9 +14689,8 @@
       <c r="Q25" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R25" s="37" t="str">
-        <f>G25</f>
-        <v>NAMA3</v>
+      <c r="R25" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
@@ -14913,14 +14702,14 @@
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
@@ -14930,15 +14719,14 @@
       <c r="M26" s="37"/>
       <c r="N26" s="37"/>
       <c r="O26" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P26" s="37"/>
       <c r="Q26" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R26" s="37" t="str">
-        <f t="shared" ref="R26:R28" si="2">G26</f>
-        <v>PANGKAT3</v>
+      <c r="R26" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
@@ -14957,7 +14745,7 @@
         <v>6</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
@@ -14973,9 +14761,8 @@
       <c r="Q27" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v>NIP3</v>
+      <c r="R27" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
@@ -14987,14 +14774,14 @@
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H28" s="37"/>
       <c r="I28" s="37"/>
@@ -15004,15 +14791,14 @@
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
       <c r="O28" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P28" s="37"/>
       <c r="Q28" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R28" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v>JABATAN3</v>
+      <c r="R28" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S28" s="37"/>
       <c r="T28" s="37"/>
@@ -15047,7 +14833,7 @@
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>11</v>
@@ -15057,7 +14843,7 @@
         <v>6</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H30" s="37"/>
       <c r="I30" s="37"/>
@@ -15066,7 +14852,7 @@
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O30" s="37" t="s">
         <v>11</v>
@@ -15075,9 +14861,8 @@
       <c r="Q30" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R30" s="37" t="str">
-        <f>G30</f>
-        <v>NAMA4</v>
+      <c r="R30" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
@@ -15089,14 +14874,14 @@
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
@@ -15106,15 +14891,14 @@
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
       <c r="O31" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P31" s="37"/>
       <c r="Q31" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R31" s="37" t="str">
-        <f t="shared" ref="R31:R33" si="3">G31</f>
-        <v>PANGKAT4</v>
+      <c r="R31" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
@@ -15133,7 +14917,7 @@
         <v>6</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H32" s="37"/>
       <c r="I32" s="37"/>
@@ -15149,9 +14933,8 @@
       <c r="Q32" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R32" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>NIP4</v>
+      <c r="R32" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
@@ -15163,14 +14946,14 @@
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
       <c r="D33" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H33" s="37"/>
       <c r="I33" s="37"/>
@@ -15180,15 +14963,14 @@
       <c r="M33" s="37"/>
       <c r="N33" s="37"/>
       <c r="O33" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P33" s="37"/>
       <c r="Q33" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R33" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>JABATAN4</v>
+      <c r="R33" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S33" s="37"/>
       <c r="T33" s="37"/>
@@ -15221,7 +15003,7 @@
     </row>
     <row r="35" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B35" s="60"/>
       <c r="C35" s="60"/>
@@ -15231,14 +15013,14 @@
         <v>6</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H35" s="37"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
       <c r="L35" s="60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M35" s="60"/>
       <c r="N35" s="60"/>
@@ -15258,7 +15040,7 @@
     </row>
     <row r="36" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B36" s="60"/>
       <c r="C36" s="60"/>
@@ -15268,14 +15050,14 @@
         <v>6</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
       <c r="L36" s="60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M36" s="60"/>
       <c r="N36" s="60"/>
@@ -15284,9 +15066,8 @@
       <c r="Q36" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R36" s="37" t="str">
-        <f>G36</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="R36" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S36" s="37"/>
       <c r="T36" s="37"/>
@@ -15295,7 +15076,7 @@
     </row>
     <row r="37" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B37" s="60"/>
       <c r="C37" s="60"/>
@@ -15305,14 +15086,14 @@
         <v>6</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H37" s="37"/>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
       <c r="L37" s="60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M37" s="60"/>
       <c r="N37" s="60"/>
@@ -15321,9 +15102,8 @@
       <c r="Q37" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R37" s="37" t="str">
-        <f>G37</f>
-        <v>TANGGAL PULANG</v>
+      <c r="R37" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="S37" s="37"/>
       <c r="T37" s="37"/>
@@ -15356,7 +15136,7 @@
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -15366,14 +15146,14 @@
         <v>6</v>
       </c>
       <c r="G39" s="58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H39" s="58"/>
       <c r="I39" s="58"/>
       <c r="J39" s="58"/>
       <c r="K39" s="58"/>
       <c r="L39" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M39" s="37"/>
       <c r="N39" s="37"/>
@@ -15465,7 +15245,7 @@
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B43" s="37"/>
       <c r="C43" s="37"/>
@@ -15475,14 +15255,14 @@
         <v>6</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
       <c r="K43" s="37"/>
       <c r="L43" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M43" s="37"/>
       <c r="N43" s="37"/>
@@ -15532,7 +15312,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
       <c r="G45" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H45" s="37"/>
       <c r="I45" s="37" t="s">
@@ -15549,7 +15329,7 @@
       <c r="P45" s="37"/>
       <c r="Q45" s="37"/>
       <c r="R45" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S45" s="37"/>
       <c r="T45" s="37" t="s">
@@ -15568,15 +15348,14 @@
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
       <c r="G46" s="37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H46" s="37"/>
       <c r="I46" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="37" t="str">
-        <f>G36</f>
-        <v>TANGGAL BERANGKAT</v>
+      <c r="J46" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="K46" s="37"/>
       <c r="L46" s="37"/>
@@ -15586,7 +15365,7 @@
       <c r="P46" s="37"/>
       <c r="Q46" s="37"/>
       <c r="R46" s="37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S46" s="37"/>
       <c r="T46" s="37" t="s">
@@ -15594,7 +15373,7 @@
       </c>
       <c r="U46" s="37" t="str">
         <f>J46</f>
-        <v>TANGGAL BERANGKAT</v>
+        <v>x</v>
       </c>
       <c r="V46" s="37"/>
     </row>
@@ -15630,7 +15409,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="37"/>
       <c r="G48" s="59" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H48" s="59"/>
       <c r="I48" s="59"/>
@@ -15643,7 +15422,7 @@
       <c r="P48" s="37"/>
       <c r="Q48" s="37"/>
       <c r="R48" s="59" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="S48" s="59"/>
       <c r="T48" s="59"/>
@@ -15658,7 +15437,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="37"/>
       <c r="G49" s="59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H49" s="59"/>
       <c r="I49" s="59"/>
@@ -15671,7 +15450,7 @@
       <c r="P49" s="37"/>
       <c r="Q49" s="37"/>
       <c r="R49" s="59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S49" s="59"/>
       <c r="T49" s="59"/>
@@ -15680,15 +15459,14 @@
     </row>
     <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G53" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
-      <c r="R53" s="15" t="str">
-        <f>G53</f>
-        <v>Yayillatul Rochmah, S. Si. Apt</v>
+      <c r="R53" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
@@ -15697,15 +15475,14 @@
     </row>
     <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G54" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
-      <c r="R54" s="42" t="str">
-        <f>G54</f>
-        <v>NIP.19780703 200502 2 006</v>
+      <c r="R54" s="42" t="s">
+        <v>168</v>
       </c>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>

--- a/server/assets/MONITORING.xlsx
+++ b/server/assets/MONITORING.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="168">
   <si>
     <t>LAPORAN PERJALANAN DINAS DALAM DAERAH</t>
   </si>
@@ -131,10 +131,10 @@
     <t>...............................</t>
   </si>
   <si>
-    <t>bu yayi v4</t>
-  </si>
-  <si>
-    <t>NIP.11111111111 v4</t>
+    <t>Yayillatul Rochmah.S. Si. Apt</t>
+  </si>
+  <si>
+    <t>NIP.19780703 200502 2 006</t>
   </si>
   <si>
     <t>PEMERINTAH KABUPATEN PASER</t>
@@ -257,6 +257,9 @@
     <t>b. Mata Anggaran</t>
   </si>
   <si>
+    <t>1.02.02.2.02.34.5.1.02.04.01.0003</t>
+  </si>
+  <si>
     <t>10.</t>
   </si>
   <si>
@@ -380,9 +383,6 @@
     <t>Kode Rek.</t>
   </si>
   <si>
-    <t>1.02.02.2.02.34.5.1.02.04.01.0003</t>
-  </si>
-  <si>
     <t>Tujuan perjalanan dinas</t>
   </si>
   <si>
@@ -398,10 +398,10 @@
     <t>UPTD Perbekalan Obat dan Alkes</t>
   </si>
   <si>
-    <t>bu tina v4</t>
-  </si>
-  <si>
-    <t>NIP.00000000000v4</t>
+    <t>Agustina Rahmawati, S.A.P</t>
+  </si>
+  <si>
+    <t>NIP.19800830 200212 2 009</t>
   </si>
   <si>
     <t>SURAT  TUGAS</t>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>6</v>
@@ -2266,7 +2266,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
       <c r="L15" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="41" t="s">
         <v>6</v>
@@ -4388,9 +4388,8 @@
       <c r="D30" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="19" t="str">
-        <f>'NOTA DINAS'!$H$42</f>
-        <v>1.02.02.2.02.34.5.1.02.04.01.0003</v>
+      <c r="E30" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -4406,9 +4405,8 @@
       <c r="O30" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="P30" s="19" t="str">
-        <f>'NOTA DINAS'!$H$42</f>
-        <v>1.02.02.2.02.34.5.1.02.04.01.0003</v>
+      <c r="P30" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
@@ -4419,10 +4417,10 @@
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="27" t="s">
@@ -4436,10 +4434,10 @@
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N31" s="27"/>
       <c r="O31" s="27" t="s">
@@ -4483,7 +4481,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
@@ -4499,7 +4497,7 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6" t="s">
@@ -4518,7 +4516,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28" t="s">
@@ -4534,7 +4532,7 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q34" s="28"/>
       <c r="R34" s="28" t="s">
@@ -5053,7 +5051,7 @@
     </row>
     <row r="8" ht="23.25" customHeight="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -5067,7 +5065,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
@@ -5109,7 +5107,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -5118,7 +5116,7 @@
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
@@ -5127,7 +5125,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N10" s="41"/>
       <c r="O10" s="41"/>
@@ -5136,7 +5134,7 @@
       </c>
       <c r="Q10" s="41"/>
       <c r="R10" s="41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S10" s="41"/>
       <c r="T10" s="41"/>
@@ -5173,7 +5171,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -5182,7 +5180,7 @@
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -5191,7 +5189,7 @@
       <c r="K12" s="41"/>
       <c r="L12" s="41"/>
       <c r="M12" s="41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
@@ -5200,7 +5198,7 @@
       </c>
       <c r="Q12" s="41"/>
       <c r="R12" s="41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S12" s="41"/>
       <c r="T12" s="41"/>
@@ -5246,7 +5244,7 @@
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
@@ -5264,7 +5262,7 @@
       </c>
       <c r="Q14" s="41"/>
       <c r="R14" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S14" s="41"/>
       <c r="T14" s="41"/>
@@ -5310,7 +5308,7 @@
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
@@ -5328,7 +5326,7 @@
       </c>
       <c r="Q16" s="41"/>
       <c r="R16" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S16" s="41"/>
       <c r="T16" s="41"/>
@@ -5365,7 +5363,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
@@ -5374,7 +5372,7 @@
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
@@ -5383,7 +5381,7 @@
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
       <c r="M18" s="41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
@@ -5392,7 +5390,7 @@
       </c>
       <c r="Q18" s="41"/>
       <c r="R18" s="41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S18" s="41"/>
       <c r="T18" s="41"/>
@@ -5429,7 +5427,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
@@ -5447,7 +5445,7 @@
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
       <c r="M20" s="41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
@@ -5493,7 +5491,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
@@ -5502,7 +5500,7 @@
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
@@ -5511,7 +5509,7 @@
       <c r="K22" s="41"/>
       <c r="L22" s="41"/>
       <c r="M22" s="41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N22" s="41"/>
       <c r="O22" s="41"/>
@@ -5520,7 +5518,7 @@
       </c>
       <c r="Q22" s="41"/>
       <c r="R22" s="41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S22" s="41"/>
       <c r="T22" s="41"/>
@@ -5583,7 +5581,7 @@
     </row>
     <row r="25" ht="21" customHeight="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
@@ -5602,7 +5600,7 @@
       <c r="K25" s="43"/>
       <c r="L25" s="43"/>
       <c r="M25" s="41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N25" s="41"/>
       <c r="O25" s="41"/>
@@ -5611,7 +5609,7 @@
       </c>
       <c r="Q25" s="41"/>
       <c r="R25" s="43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S25" s="43"/>
       <c r="T25" s="43"/>
@@ -5674,7 +5672,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -5683,7 +5681,7 @@
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
@@ -5692,7 +5690,7 @@
       <c r="K28" s="44"/>
       <c r="L28" s="44"/>
       <c r="M28" s="41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N28" s="41"/>
       <c r="O28" s="41"/>
@@ -5701,7 +5699,7 @@
       </c>
       <c r="Q28" s="41"/>
       <c r="R28" s="44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
@@ -5738,7 +5736,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
@@ -5749,7 +5747,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
@@ -5758,7 +5756,7 @@
       <c r="K30" s="41"/>
       <c r="L30" s="41"/>
       <c r="M30" s="41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N30" s="41"/>
       <c r="O30" s="41"/>
@@ -5769,7 +5767,7 @@
         <v>11</v>
       </c>
       <c r="R30" s="45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S30" s="41"/>
       <c r="T30" s="41"/>
@@ -5785,7 +5783,7 @@
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G31" s="41"/>
       <c r="H31" s="41"/>
@@ -5799,7 +5797,7 @@
       <c r="P31" s="41"/>
       <c r="Q31" s="41"/>
       <c r="R31" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S31" s="41"/>
       <c r="T31" s="41"/>
@@ -5817,7 +5815,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G32" s="41"/>
       <c r="H32" s="41"/>
@@ -5833,7 +5831,7 @@
         <v>14</v>
       </c>
       <c r="R32" s="45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S32" s="41"/>
       <c r="T32" s="41"/>
@@ -5849,7 +5847,7 @@
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
       <c r="F33" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G33" s="41"/>
       <c r="H33" s="41"/>
@@ -5863,7 +5861,7 @@
       <c r="P33" s="41"/>
       <c r="Q33" s="41"/>
       <c r="R33" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S33" s="41"/>
       <c r="T33" s="41"/>
@@ -5881,7 +5879,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
@@ -5897,7 +5895,7 @@
         <v>15</v>
       </c>
       <c r="R34" s="45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S34" s="41"/>
       <c r="T34" s="41"/>
@@ -5913,7 +5911,7 @@
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
       <c r="F35" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G35" s="41"/>
       <c r="H35" s="41"/>
@@ -5927,7 +5925,7 @@
       <c r="P35" s="41"/>
       <c r="Q35" s="41"/>
       <c r="R35" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S35" s="41"/>
       <c r="T35" s="41"/>
@@ -5945,7 +5943,7 @@
         <v>16</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
@@ -5961,7 +5959,7 @@
         <v>16</v>
       </c>
       <c r="R36" s="45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S36" s="41"/>
       <c r="T36" s="41"/>
@@ -5977,7 +5975,7 @@
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
       <c r="F37" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
@@ -5991,7 +5989,7 @@
       <c r="P37" s="41"/>
       <c r="Q37" s="41"/>
       <c r="R37" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S37" s="41"/>
       <c r="T37" s="41"/>
@@ -6028,7 +6026,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -6037,7 +6035,7 @@
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G39" s="41"/>
       <c r="H39" s="41"/>
@@ -6046,7 +6044,7 @@
       <c r="K39" s="41"/>
       <c r="L39" s="41"/>
       <c r="M39" s="41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
@@ -6055,7 +6053,7 @@
       </c>
       <c r="Q39" s="41"/>
       <c r="R39" s="41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S39" s="41"/>
       <c r="T39" s="41"/>
@@ -6092,7 +6090,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -6110,7 +6108,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -6135,13 +6133,13 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -6153,14 +6151,13 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T42" s="4" t="str">
-        <f>H42</f>
-        <v>1.02.02.2.02.34.5.1.02.04.01.0003</v>
+      <c r="T42" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
@@ -6204,7 +6201,7 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
@@ -6222,7 +6219,7 @@
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S44" s="47"/>
       <c r="T44" s="47"/>
@@ -6733,7 +6730,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q9" t="s">
         <v>46</v>
@@ -6742,7 +6739,7 @@
         <v>6</v>
       </c>
       <c r="S9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" ht="9.2" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -6901,7 +6898,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -6920,7 +6917,7 @@
         <v>6</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
@@ -6944,7 +6941,7 @@
         <v>54</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -6965,7 +6962,7 @@
         <v>54</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
@@ -6986,7 +6983,7 @@
         <v>56</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -7005,7 +7002,7 @@
         <v>56</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
@@ -7221,7 +7218,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
@@ -7282,7 +7279,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -7299,7 +7296,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
@@ -7318,7 +7315,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -7335,7 +7332,7 @@
         <v>6</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
@@ -7465,9 +7462,8 @@
       <c r="D30" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="19" t="str">
-        <f>'NOTA DINAS'!$H$42</f>
-        <v>1.02.02.2.02.34.5.1.02.04.01.0003</v>
+      <c r="E30" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -7483,9 +7479,8 @@
       <c r="O30" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="P30" s="19" t="str">
-        <f>'NOTA DINAS'!$H$42</f>
-        <v>1.02.02.2.02.34.5.1.02.04.01.0003</v>
+      <c r="P30" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
@@ -7496,10 +7491,10 @@
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="27" t="s">
@@ -7513,10 +7508,10 @@
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N31" s="27"/>
       <c r="O31" s="27" t="s">
@@ -7560,7 +7555,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
@@ -7576,7 +7571,7 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6" t="s">
@@ -7595,14 +7590,14 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28" t="s">
         <v>6</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I34" s="28"/>
       <c r="J34" s="6"/>
@@ -7611,14 +7606,14 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q34" s="28"/>
       <c r="R34" s="28" t="s">
         <v>6</v>
       </c>
       <c r="S34" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T34" s="28"/>
       <c r="U34" s="6"/>
@@ -7963,10 +7958,10 @@
     <row r="1" ht="19.7" customHeight="1" spans="5:39" x14ac:dyDescent="0.25">
       <c r="E1" s="30"/>
       <c r="F1" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>6</v>
@@ -7975,14 +7970,14 @@
         <v>6</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R1" s="30"/>
       <c r="S1" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>6</v>
@@ -7991,14 +7986,14 @@
         <v>6</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="30"/>
       <c r="AF1" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>6</v>
@@ -8007,13 +8002,13 @@
         <v>6</v>
       </c>
       <c r="AM1" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" ht="19.7" customHeight="1" spans="5:39" x14ac:dyDescent="0.25">
       <c r="E2" s="30"/>
       <c r="G2" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>6</v>
@@ -8029,7 +8024,7 @@
       </c>
       <c r="R2" s="30"/>
       <c r="T2" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>6</v>
@@ -8045,7 +8040,7 @@
       </c>
       <c r="AE2" s="30"/>
       <c r="AG2" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH2" s="4" t="s">
         <v>6</v>
@@ -8063,21 +8058,21 @@
     <row r="3" ht="19.7" customHeight="1" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E3" s="30"/>
       <c r="G3" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R3" s="30"/>
       <c r="T3" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE3" s="30"/>
       <c r="AG3" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" ht="19.7" customHeight="1" spans="5:39" x14ac:dyDescent="0.25">
       <c r="E4" s="30"/>
       <c r="G4" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>6</v>
@@ -8086,11 +8081,11 @@
         <v>6</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R4" s="30"/>
       <c r="T4" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>6</v>
@@ -8099,11 +8094,11 @@
         <v>6</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE4" s="30"/>
       <c r="AG4" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>6</v>
@@ -8112,13 +8107,13 @@
         <v>6</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" ht="19.7" customHeight="1" spans="5:39" x14ac:dyDescent="0.25">
       <c r="E5" s="30"/>
       <c r="G5" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>6</v>
@@ -8127,11 +8122,11 @@
         <v>6</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R5" s="30"/>
       <c r="T5" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>6</v>
@@ -8140,11 +8135,11 @@
         <v>6</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE5" s="30"/>
       <c r="AG5" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH5" s="4" t="s">
         <v>6</v>
@@ -8153,7 +8148,7 @@
         <v>6</v>
       </c>
       <c r="AM5" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="19.7" customHeight="1" spans="5:31" x14ac:dyDescent="0.25">
@@ -8209,70 +8204,70 @@
     </row>
     <row r="9" ht="19.7" customHeight="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="30"/>
       <c r="G9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="N9" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R9" s="30"/>
       <c r="T9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="U9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="AA9" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE9" s="30"/>
       <c r="AG9" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>6</v>
@@ -8287,17 +8282,17 @@
     </row>
     <row r="10" ht="19.7" customHeight="1" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" s="30"/>
       <c r="G10" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>6</v>
@@ -8310,17 +8305,17 @@
         <v>Tana Paser</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R10" s="30"/>
       <c r="T10" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>6</v>
@@ -8333,17 +8328,17 @@
         <v>Tana Paser</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE10" s="30"/>
       <c r="AG10" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH10" s="4" t="s">
         <v>6</v>
@@ -8358,14 +8353,14 @@
     </row>
     <row r="11" ht="19.7" customHeight="1" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="30"/>
       <c r="G11" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>6</v>
@@ -8374,17 +8369,17 @@
         <v>6</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R11" s="30"/>
       <c r="T11" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U11" s="4" t="s">
         <v>6</v>
@@ -8393,17 +8388,17 @@
         <v>6</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE11" s="30"/>
       <c r="AG11" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="4" t="s">
         <v>6</v>
@@ -8412,13 +8407,13 @@
         <v>6</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" ht="19.7" customHeight="1" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E12" s="30"/>
       <c r="G12" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>6</v>
@@ -8428,7 +8423,7 @@
       </c>
       <c r="R12" s="30"/>
       <c r="T12" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U12" s="4" t="s">
         <v>6</v>
@@ -8438,7 +8433,7 @@
       </c>
       <c r="AE12" s="30"/>
       <c r="AG12" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH12" s="4" t="s">
         <v>6</v>
@@ -8505,17 +8500,17 @@
     </row>
     <row r="17" ht="19.7" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="30"/>
       <c r="G17" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>6</v>
@@ -8524,17 +8519,17 @@
         <v>6</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R17" s="30"/>
       <c r="T17" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U17" s="4" t="s">
         <v>6</v>
@@ -8543,17 +8538,17 @@
         <v>6</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE17" s="30"/>
       <c r="AG17" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH17" s="4" t="s">
         <v>6</v>
@@ -8564,46 +8559,46 @@
     </row>
     <row r="18" ht="19.7" customHeight="1" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="30"/>
       <c r="G18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R18" s="30"/>
       <c r="T18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB18" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="AC18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE18" s="30"/>
       <c r="AG18" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH18" s="4" t="s">
         <v>6</v>
@@ -8614,14 +8609,14 @@
     </row>
     <row r="19" ht="19.7" customHeight="1" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="30"/>
       <c r="G19" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>6</v>
@@ -8630,14 +8625,14 @@
         <v>6</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R19" s="30"/>
       <c r="T19" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U19" s="4" t="s">
         <v>6</v>
@@ -8646,14 +8641,14 @@
         <v>6</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE19" s="30"/>
       <c r="AG19" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH19" s="4" t="s">
         <v>6</v>
@@ -8665,7 +8660,7 @@
     <row r="20" ht="19.7" customHeight="1" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E20" s="30"/>
       <c r="G20" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>6</v>
@@ -8675,7 +8670,7 @@
       </c>
       <c r="R20" s="30"/>
       <c r="T20" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U20" s="4" t="s">
         <v>6</v>
@@ -8685,7 +8680,7 @@
       </c>
       <c r="AE20" s="30"/>
       <c r="AG20" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH20" s="4" t="s">
         <v>6</v>
@@ -8752,10 +8747,10 @@
     </row>
     <row r="25" ht="19.7" customHeight="1" spans="4:33" x14ac:dyDescent="0.25">
       <c r="D25" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>6</v>
@@ -8764,10 +8759,10 @@
         <v>63</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S25" s="4" t="s">
         <v>6</v>
@@ -8776,10 +8771,10 @@
         <v>63</v>
       </c>
       <c r="AD25" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF25" s="4" t="s">
         <v>6</v>
@@ -8790,36 +8785,36 @@
     </row>
     <row r="26" ht="19.7" customHeight="1" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E26" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AG26" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" ht="19.7" customHeight="1" spans="5:39" x14ac:dyDescent="0.25">
       <c r="E27" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -8830,7 +8825,7 @@
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
       <c r="R27" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S27" s="34"/>
       <c r="T27" s="34"/>
@@ -8841,7 +8836,7 @@
       <c r="Y27" s="34"/>
       <c r="Z27" s="34"/>
       <c r="AE27" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF27" s="34"/>
       <c r="AG27" s="34"/>
@@ -9039,10 +9034,10 @@
     </row>
     <row r="38" ht="19.7" customHeight="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
@@ -9056,10 +9051,10 @@
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
       <c r="N38" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O38" s="38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P38" s="38"/>
       <c r="Q38" s="38"/>
@@ -9073,10 +9068,10 @@
       <c r="Y38" s="38"/>
       <c r="Z38" s="38"/>
       <c r="AA38" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB38" s="38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC38" s="38"/>
       <c r="AD38" s="38"/>
@@ -9093,10 +9088,10 @@
     <row r="45" ht="19.7" customHeight="1" spans="5:39" x14ac:dyDescent="0.25">
       <c r="E45" s="30"/>
       <c r="F45" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>6</v>
@@ -9105,14 +9100,14 @@
         <v>6</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R45" s="30"/>
       <c r="S45" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U45" s="4" t="s">
         <v>6</v>
@@ -9121,14 +9116,14 @@
         <v>6</v>
       </c>
       <c r="Z45" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE45" s="30"/>
       <c r="AF45" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG45" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH45" s="4" t="s">
         <v>6</v>
@@ -9137,13 +9132,13 @@
         <v>6</v>
       </c>
       <c r="AM45" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" ht="19.7" customHeight="1" spans="5:39" x14ac:dyDescent="0.25">
       <c r="E46" s="30"/>
       <c r="G46" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>6</v>
@@ -9159,7 +9154,7 @@
       </c>
       <c r="R46" s="30"/>
       <c r="T46" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U46" s="4" t="s">
         <v>6</v>
@@ -9175,7 +9170,7 @@
       </c>
       <c r="AE46" s="30"/>
       <c r="AG46" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH46" s="4" t="s">
         <v>6</v>
@@ -9193,21 +9188,21 @@
     <row r="47" ht="19.7" customHeight="1" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E47" s="30"/>
       <c r="G47" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R47" s="30"/>
       <c r="T47" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE47" s="30"/>
       <c r="AG47" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" ht="19.7" customHeight="1" spans="5:39" x14ac:dyDescent="0.25">
       <c r="E48" s="30"/>
       <c r="G48" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>6</v>
@@ -9216,11 +9211,11 @@
         <v>6</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R48" s="30"/>
       <c r="T48" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U48" s="4" t="s">
         <v>6</v>
@@ -9229,11 +9224,11 @@
         <v>6</v>
       </c>
       <c r="Z48" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE48" s="30"/>
       <c r="AG48" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH48" s="4" t="s">
         <v>6</v>
@@ -9242,13 +9237,13 @@
         <v>6</v>
       </c>
       <c r="AM48" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" ht="19.7" customHeight="1" spans="5:39" x14ac:dyDescent="0.25">
       <c r="E49" s="30"/>
       <c r="G49" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>6</v>
@@ -9257,11 +9252,11 @@
         <v>6</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R49" s="30"/>
       <c r="T49" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U49" s="4" t="s">
         <v>6</v>
@@ -9270,11 +9265,11 @@
         <v>6</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE49" s="30"/>
       <c r="AG49" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH49" s="4" t="s">
         <v>6</v>
@@ -9283,7 +9278,7 @@
         <v>6</v>
       </c>
       <c r="AM49" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" ht="19.7" customHeight="1" spans="5:31" x14ac:dyDescent="0.25">
@@ -9339,94 +9334,94 @@
     </row>
     <row r="53" ht="19.7" customHeight="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E53" s="30"/>
       <c r="G53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="N53" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R53" s="30"/>
       <c r="T53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z53" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="U53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z53" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="AA53" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AB53" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC53" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE53" s="30"/>
       <c r="AG53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM53" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="AH53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM53" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="54" ht="19.7" customHeight="1" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54" s="30"/>
       <c r="G54" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>6</v>
@@ -9439,17 +9434,17 @@
         <v>Tana Paser</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R54" s="30"/>
       <c r="T54" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U54" s="4" t="s">
         <v>6</v>
@@ -9462,17 +9457,17 @@
         <v>Tana Paser</v>
       </c>
       <c r="AB54" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC54" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AD54" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE54" s="30"/>
       <c r="AG54" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH54" s="4" t="s">
         <v>6</v>
@@ -9487,14 +9482,14 @@
     </row>
     <row r="55" ht="19.7" customHeight="1" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="30"/>
       <c r="G55" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>6</v>
@@ -9503,17 +9498,17 @@
         <v>6</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R55" s="30"/>
       <c r="T55" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U55" s="4" t="s">
         <v>6</v>
@@ -9522,17 +9517,17 @@
         <v>6</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB55" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC55" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE55" s="30"/>
       <c r="AG55" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH55" s="4" t="s">
         <v>6</v>
@@ -9541,13 +9536,13 @@
         <v>6</v>
       </c>
       <c r="AM55" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" ht="19.7" customHeight="1" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E56" s="30"/>
       <c r="G56" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>6</v>
@@ -9557,7 +9552,7 @@
       </c>
       <c r="R56" s="30"/>
       <c r="T56" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U56" s="4" t="s">
         <v>6</v>
@@ -9567,7 +9562,7 @@
       </c>
       <c r="AE56" s="30"/>
       <c r="AG56" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH56" s="4" t="s">
         <v>6</v>
@@ -9634,17 +9629,17 @@
     </row>
     <row r="61" ht="19.7" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="30"/>
       <c r="G61" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>6</v>
@@ -9653,17 +9648,17 @@
         <v>6</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R61" s="30"/>
       <c r="T61" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U61" s="4" t="s">
         <v>6</v>
@@ -9672,17 +9667,17 @@
         <v>6</v>
       </c>
       <c r="AA61" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AB61" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC61" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE61" s="30"/>
       <c r="AG61" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH61" s="4" t="s">
         <v>6</v>
@@ -9693,46 +9688,46 @@
     </row>
     <row r="62" ht="19.7" customHeight="1" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="30"/>
       <c r="G62" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R62" s="30"/>
       <c r="T62" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB62" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="U62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB62" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="AC62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE62" s="30"/>
       <c r="AG62" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH62" s="4" t="s">
         <v>6</v>
@@ -9743,14 +9738,14 @@
     </row>
     <row r="63" ht="19.7" customHeight="1" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="30"/>
       <c r="G63" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>6</v>
@@ -9759,14 +9754,14 @@
         <v>6</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R63" s="30"/>
       <c r="T63" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U63" s="4" t="s">
         <v>6</v>
@@ -9775,14 +9770,14 @@
         <v>6</v>
       </c>
       <c r="AB63" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC63" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AE63" s="30"/>
       <c r="AG63" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH63" s="4" t="s">
         <v>6</v>
@@ -9794,7 +9789,7 @@
     <row r="64" ht="19.7" customHeight="1" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E64" s="30"/>
       <c r="G64" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>6</v>
@@ -9804,7 +9799,7 @@
       </c>
       <c r="R64" s="30"/>
       <c r="T64" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U64" s="4" t="s">
         <v>6</v>
@@ -9814,7 +9809,7 @@
       </c>
       <c r="AE64" s="30"/>
       <c r="AG64" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH64" s="4" t="s">
         <v>6</v>
@@ -9881,10 +9876,10 @@
     </row>
     <row r="69" ht="19.7" customHeight="1" spans="4:33" x14ac:dyDescent="0.25">
       <c r="D69" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>6</v>
@@ -9893,10 +9888,10 @@
         <v>63</v>
       </c>
       <c r="Q69" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S69" s="4" t="s">
         <v>6</v>
@@ -9905,10 +9900,10 @@
         <v>63</v>
       </c>
       <c r="AD69" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE69" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF69" s="4" t="s">
         <v>6</v>
@@ -9919,36 +9914,36 @@
     </row>
     <row r="70" ht="19.7" customHeight="1" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E70" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S70" s="4" t="s">
         <v>6</v>
       </c>
       <c r="T70" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE70" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF70" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AG70" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" ht="19.7" customHeight="1" spans="5:39" x14ac:dyDescent="0.25">
       <c r="E71" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
@@ -9959,7 +9954,7 @@
       <c r="L71" s="34"/>
       <c r="M71" s="34"/>
       <c r="R71" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S71" s="34"/>
       <c r="T71" s="34"/>
@@ -9970,7 +9965,7 @@
       <c r="Y71" s="34"/>
       <c r="Z71" s="34"/>
       <c r="AE71" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF71" s="34"/>
       <c r="AG71" s="34"/>
@@ -10168,10 +10163,10 @@
     </row>
     <row r="82" ht="19.7" customHeight="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
@@ -10185,10 +10180,10 @@
       <c r="L82" s="38"/>
       <c r="M82" s="38"/>
       <c r="N82" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O82" s="38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P82" s="38"/>
       <c r="Q82" s="38"/>
@@ -10202,10 +10197,10 @@
       <c r="Y82" s="38"/>
       <c r="Z82" s="38"/>
       <c r="AA82" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB82" s="38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC82" s="38"/>
       <c r="AD82" s="38"/>
@@ -10222,10 +10217,10 @@
     <row r="89" ht="19.7" customHeight="1" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E89" s="30"/>
       <c r="F89" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>6</v>
@@ -10234,14 +10229,14 @@
         <v>6</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R89" s="30"/>
       <c r="S89" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T89" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U89" s="4" t="s">
         <v>6</v>
@@ -10250,13 +10245,13 @@
         <v>6</v>
       </c>
       <c r="Z89" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" ht="19.7" customHeight="1" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E90" s="30"/>
       <c r="G90" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>6</v>
@@ -10272,7 +10267,7 @@
       </c>
       <c r="R90" s="30"/>
       <c r="T90" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U90" s="4" t="s">
         <v>6</v>
@@ -10290,17 +10285,17 @@
     <row r="91" ht="19.7" customHeight="1" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E91" s="30"/>
       <c r="G91" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R91" s="30"/>
       <c r="T91" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" ht="19.7" customHeight="1" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E92" s="30"/>
       <c r="G92" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>6</v>
@@ -10314,7 +10309,7 @@
       </c>
       <c r="R92" s="30"/>
       <c r="T92" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U92" s="4" t="s">
         <v>6</v>
@@ -10323,13 +10318,13 @@
         <v>6</v>
       </c>
       <c r="Z92" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" ht="19.7" customHeight="1" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E93" s="30"/>
       <c r="G93" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>6</v>
@@ -10338,11 +10333,11 @@
         <v>6</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R93" s="30"/>
       <c r="T93" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U93" s="4" t="s">
         <v>6</v>
@@ -10351,7 +10346,7 @@
         <v>6</v>
       </c>
       <c r="Z93" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" ht="19.7" customHeight="1" spans="5:18" x14ac:dyDescent="0.25">
@@ -10392,69 +10387,69 @@
     </row>
     <row r="97" ht="19.7" customHeight="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E97" s="30"/>
       <c r="G97" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M97" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H97" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M97" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="N97" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P97" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Q97" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R97" s="30"/>
       <c r="T97" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z97" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="U97" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y97" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z97" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="98" ht="19.7" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E98" s="30"/>
       <c r="G98" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>6</v>
@@ -10467,17 +10462,17 @@
         <v>Tana Paser</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P98" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Q98" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R98" s="30"/>
       <c r="T98" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U98" s="4" t="s">
         <v>6</v>
@@ -10492,17 +10487,17 @@
     </row>
     <row r="99" ht="19.7" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E99" s="30"/>
       <c r="G99" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>6</v>
@@ -10511,20 +10506,20 @@
         <v>6</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P99" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R99" s="30"/>
       <c r="T99" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U99" s="4" t="s">
         <v>6</v>
@@ -10533,13 +10528,13 @@
         <v>6</v>
       </c>
       <c r="Z99" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" ht="19.7" customHeight="1" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E100" s="30"/>
       <c r="G100" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>6</v>
@@ -10549,7 +10544,7 @@
       </c>
       <c r="R100" s="30"/>
       <c r="T100" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U100" s="4" t="s">
         <v>6</v>
@@ -10600,17 +10595,17 @@
     </row>
     <row r="105" ht="19.7" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E105" s="30"/>
       <c r="G105" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>6</v>
@@ -10619,17 +10614,17 @@
         <v>6</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P105" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R105" s="30"/>
       <c r="T105" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U105" s="4" t="s">
         <v>6</v>
@@ -10640,30 +10635,30 @@
     </row>
     <row r="106" ht="19.7" customHeight="1" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E106" s="30"/>
       <c r="G106" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O106" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L106" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O106" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="P106" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R106" s="30"/>
       <c r="T106" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U106" s="4" t="s">
         <v>6</v>
@@ -10674,14 +10669,14 @@
     </row>
     <row r="107" ht="19.7" customHeight="1" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E107" s="30"/>
       <c r="G107" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>6</v>
@@ -10690,14 +10685,14 @@
         <v>6</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P107" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R107" s="30"/>
       <c r="T107" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U107" s="4" t="s">
         <v>6</v>
@@ -10709,7 +10704,7 @@
     <row r="108" ht="19.7" customHeight="1" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E108" s="30"/>
       <c r="G108" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>6</v>
@@ -10719,7 +10714,7 @@
       </c>
       <c r="R108" s="30"/>
       <c r="T108" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U108" s="4" t="s">
         <v>6</v>
@@ -10770,10 +10765,10 @@
     </row>
     <row r="113" ht="19.7" customHeight="1" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D113" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>6</v>
@@ -10782,10 +10777,10 @@
         <v>63</v>
       </c>
       <c r="Q113" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R113" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S113" s="4" t="s">
         <v>6</v>
@@ -10796,27 +10791,27 @@
     </row>
     <row r="114" ht="19.7" customHeight="1" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E114" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R114" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S114" s="4" t="s">
         <v>6</v>
       </c>
       <c r="T114" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" ht="19.7" customHeight="1" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E115" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="34"/>
@@ -10827,7 +10822,7 @@
       <c r="L115" s="34"/>
       <c r="M115" s="34"/>
       <c r="R115" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S115" s="34"/>
       <c r="T115" s="34"/>
@@ -10968,10 +10963,10 @@
     </row>
     <row r="126" ht="19.7" customHeight="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
@@ -10985,10 +10980,10 @@
       <c r="L126" s="38"/>
       <c r="M126" s="38"/>
       <c r="N126" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O126" s="38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P126" s="38"/>
       <c r="Q126" s="38"/>
@@ -11219,7 +11214,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q9" t="s">
         <v>46</v>
@@ -11228,7 +11223,7 @@
         <v>6</v>
       </c>
       <c r="S9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" ht="9.2" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -11387,7 +11382,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -11406,7 +11401,7 @@
         <v>6</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
@@ -11430,7 +11425,7 @@
         <v>54</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -11451,7 +11446,7 @@
         <v>54</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
@@ -11472,7 +11467,7 @@
         <v>56</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -11491,7 +11486,7 @@
         <v>56</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
@@ -11689,7 +11684,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -11706,7 +11701,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
@@ -11767,7 +11762,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -11784,7 +11779,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
@@ -11803,7 +11798,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -11820,7 +11815,7 @@
         <v>6</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
@@ -11950,9 +11945,8 @@
       <c r="D30" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="19" t="str">
-        <f>'NOTA DINAS'!$H$42</f>
-        <v>1.02.02.2.02.34.5.1.02.04.01.0003</v>
+      <c r="E30" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -11968,9 +11962,8 @@
       <c r="O30" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="P30" s="19" t="str">
-        <f>'NOTA DINAS'!$H$42</f>
-        <v>1.02.02.2.02.34.5.1.02.04.01.0003</v>
+      <c r="P30" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
@@ -11981,10 +11974,10 @@
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="27" t="s">
@@ -11998,10 +11991,10 @@
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N31" s="27"/>
       <c r="O31" s="27" t="s">
@@ -12045,7 +12038,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
@@ -12061,7 +12054,7 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6" t="s">
@@ -12080,14 +12073,14 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28" t="s">
         <v>6</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I34" s="28"/>
       <c r="J34" s="6"/>
@@ -12096,14 +12089,14 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q34" s="28"/>
       <c r="R34" s="28" t="s">
         <v>6</v>
       </c>
       <c r="S34" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T34" s="28"/>
       <c r="U34" s="6"/>
@@ -12597,7 +12590,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q9" t="s">
         <v>46</v>
@@ -12606,7 +12599,7 @@
         <v>6</v>
       </c>
       <c r="S9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" ht="9.2" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -12765,7 +12758,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -12784,7 +12777,7 @@
         <v>6</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
@@ -12808,7 +12801,7 @@
         <v>54</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -12829,7 +12822,7 @@
         <v>54</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
@@ -12850,7 +12843,7 @@
         <v>56</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -12869,7 +12862,7 @@
         <v>56</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
@@ -13067,7 +13060,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -13084,7 +13077,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
@@ -13145,7 +13138,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -13162,7 +13155,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
@@ -13181,7 +13174,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -13198,7 +13191,7 @@
         <v>6</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
@@ -13328,9 +13321,8 @@
       <c r="D30" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="19" t="str">
-        <f>'NOTA DINAS'!$H$42</f>
-        <v>1.02.02.2.02.34.5.1.02.04.01.0003</v>
+      <c r="E30" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -13346,9 +13338,8 @@
       <c r="O30" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="P30" s="19" t="str">
-        <f>'NOTA DINAS'!$H$42</f>
-        <v>1.02.02.2.02.34.5.1.02.04.01.0003</v>
+      <c r="P30" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
@@ -13359,10 +13350,10 @@
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="27" t="s">
@@ -13376,10 +13367,10 @@
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N31" s="27"/>
       <c r="O31" s="27" t="s">
@@ -13423,7 +13414,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
@@ -13439,7 +13430,7 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6" t="s">
@@ -13458,14 +13449,14 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28" t="s">
         <v>6</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I34" s="28"/>
       <c r="J34" s="6"/>
@@ -13474,14 +13465,14 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q34" s="28"/>
       <c r="R34" s="28" t="s">
         <v>6</v>
       </c>
       <c r="S34" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T34" s="28"/>
       <c r="U34" s="6"/>
